--- a/programs/gen/basic_formula_pop.xlsx
+++ b/programs/gen/basic_formula_pop.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>37.58957290649414</v>
+        <v>40.60003280639648</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>40.340087890625</v>
+        <v>40.51526641845703</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39.35540390014648</v>
+        <v>40.48826599121094</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41.09611892700195</v>
+        <v>40.46460342407227</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>39.61322784423828</v>
+        <v>40.42684555053711</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>40.18612289428711</v>
+        <v>40.42145156860352</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>41.5638313293457</v>
+        <v>40.38496780395508</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>39.73543548583984</v>
+        <v>40.30046081542969</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>41.17504119873047</v>
+        <v>40.23568725585938</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>39.16791152954102</v>
+        <v>40.0803337097168</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>41.85219955444336</v>
+        <v>40.00847625732422</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>41.63515472412109</v>
+        <v>39.69955444335938</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>40.19136428833008</v>
+        <v>39.60367965698242</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>39.21142196655273</v>
+        <v>39.6923713684082</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>40.73596572875977</v>
+        <v>39.41954803466797</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>40.74394226074219</v>
+        <v>37.71209335327148</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>40.25637054443359</v>
+        <v>37.16590881347656</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>40.39333343505859</v>
+        <v>36.996337890625</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>41.35166549682617</v>
+        <v>37.45956420898438</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>39.75880813598633</v>
+        <v>36.93558120727539</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>39.66579055786133</v>
+        <v>37.47099304199219</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>38.4775505065918</v>
+        <v>35.77240753173828</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>38.68738174438477</v>
+        <v>33.95170974731445</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>39.8858528137207</v>
+        <v>34.95419692993164</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>41.31113815307617</v>
+        <v>34.03368759155273</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>40.24812698364258</v>
+        <v>33.50822067260742</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>39.0648078918457</v>
+        <v>33.40261459350586</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>38.74871063232422</v>
+        <v>34.37431335449219</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>40.36889266967773</v>
+        <v>33.26921463012695</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>40.4761848449707</v>
+        <v>33.32449340820312</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>40.75419998168945</v>
+        <v>33.23685836791992</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>42.69300842285156</v>
+        <v>33.13150024414062</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>40.69829940795898</v>
+        <v>33.39320373535156</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>39.53235244750977</v>
+        <v>33.17287445068359</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>40.02678298950195</v>
+        <v>33.16233062744141</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>39.45531845092773</v>
+        <v>33.94355010986328</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>40.66919326782227</v>
+        <v>32.95160675048828</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>39.99060821533203</v>
+        <v>32.89411163330078</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>39.90168762207031</v>
+        <v>32.82756423950195</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>40.19121551513672</v>
+        <v>32.85044097900391</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>42.06223678588867</v>
+        <v>32.96347427368164</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>41.02929306030273</v>
+        <v>32.61794281005859</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>39.66189956665039</v>
+        <v>33.2367057800293</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>41.26633834838867</v>
+        <v>33.01611709594727</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>40.14906692504883</v>
+        <v>32.50676727294922</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>41.23080062866211</v>
+        <v>32.46894836425781</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>39.44375991821289</v>
+        <v>32.48919296264648</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>39.77439498901367</v>
+        <v>32.42586135864258</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>38.65817260742188</v>
+        <v>32.29706573486328</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>38.07646179199219</v>
+        <v>34.77356338500977</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>40.64777755737305</v>
+        <v>32.70101165771484</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>40.77861404418945</v>
+        <v>32.48920822143555</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>38.83108901977539</v>
+        <v>32.38360595703125</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>39.70377349853516</v>
+        <v>32.57124710083008</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>39.85201644897461</v>
+        <v>32.27188873291016</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>39.88996124267578</v>
+        <v>32.24117279052734</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>39.93052291870117</v>
+        <v>32.60903167724609</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>40.88044357299805</v>
+        <v>33.88359832763672</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>39.45930862426758</v>
+        <v>32.71543502807617</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>40.4996223449707</v>
+        <v>34.96020126342773</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>40.38322067260742</v>
+        <v>32.92206573486328</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>40.86496734619141</v>
+        <v>32.23749923706055</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>40.82130813598633</v>
+        <v>32.18717575073242</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>40.90575790405273</v>
+        <v>33.13980102539062</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>39.73235321044922</v>
+        <v>32.83692932128906</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>38.64168930053711</v>
+        <v>32.54844284057617</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>39.77073287963867</v>
+        <v>32.36649703979492</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>38.59733963012695</v>
+        <v>32.16122436523438</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>39.45683670043945</v>
+        <v>32.17572021484375</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>39.61322402954102</v>
+        <v>32.36152648925781</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>39.88671493530273</v>
+        <v>32.99817657470703</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>39.851806640625</v>
+        <v>32.28775405883789</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>39.7268180847168</v>
+        <v>33.61297607421875</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>41.77321243286133</v>
+        <v>33.98493576049805</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>39.31465911865234</v>
+        <v>32.6888427734375</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>38.75716018676758</v>
+        <v>32.26451873779297</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>39.24357604980469</v>
+        <v>32.50460815429688</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>40.03055953979492</v>
+        <v>32.23696899414062</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>39.35016250610352</v>
+        <v>33.07256317138672</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>39.41080856323242</v>
+        <v>32.07558441162109</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>39.4872932434082</v>
+        <v>32.36602020263672</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>40.16376113891602</v>
+        <v>32.06003570556641</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>39.75695419311523</v>
+        <v>33.51131820678711</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>40.04579925537109</v>
+        <v>34.16565704345703</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>39.57390975952148</v>
+        <v>34.33353424072266</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>39.95734405517578</v>
+        <v>32.11098480224609</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>39.7221794128418</v>
+        <v>32.13377380371094</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>39.37436676025391</v>
+        <v>32.38377380371094</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>40.7628173828125</v>
+        <v>31.86671257019043</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>38.76139068603516</v>
+        <v>31.97634315490723</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>40.90259170532227</v>
+        <v>33.3241081237793</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>39.13176727294922</v>
+        <v>32.51924514770508</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>36.67820358276367</v>
+        <v>32.0932502746582</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>41.41044998168945</v>
+        <v>32.21421432495117</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>39.03627014160156</v>
+        <v>31.77134323120117</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>39.10808563232422</v>
+        <v>31.7972297668457</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>41.521240234375</v>
+        <v>32.40535354614258</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>38.12250900268555</v>
+        <v>32.27932739257812</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>40.7845573425293</v>
+        <v>31.735595703125</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>37.20023345947266</v>
+        <v>31.63823890686035</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>39.82180404663086</v>
+        <v>31.78854560852051</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>40.15170669555664</v>
+        <v>31.77370834350586</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>39.13511657714844</v>
+        <v>32.55345153808594</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>40.8133544921875</v>
+        <v>32.80515289306641</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>39.41455459594727</v>
+        <v>32.20587539672852</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>39.89722061157227</v>
+        <v>31.57949638366699</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>38.58803558349609</v>
+        <v>31.62216949462891</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>41.6912956237793</v>
+        <v>31.60475540161133</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>39.55108642578125</v>
+        <v>31.62210655212402</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>39.33793258666992</v>
+        <v>31.65927124023438</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>40.94073867797852</v>
+        <v>31.71289825439453</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>37.83895492553711</v>
+        <v>31.77303695678711</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>40.05995941162109</v>
+        <v>31.86441230773926</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>41.96521377563477</v>
+        <v>31.7446174621582</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>42.49765396118164</v>
+        <v>31.68886184692383</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>38.67580795288086</v>
+        <v>32.12310791015625</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>36.73182678222656</v>
+        <v>31.61845779418945</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>39.79449844360352</v>
+        <v>31.74069595336914</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>41.00215530395508</v>
+        <v>32.52484893798828</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>39.43943023681641</v>
+        <v>32.1961669921875</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>41.02761840820312</v>
+        <v>31.58863067626953</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>39.0344352722168</v>
+        <v>32.56328201293945</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>40.89052963256836</v>
+        <v>31.63424873352051</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>38.33227157592773</v>
+        <v>35.24114990234375</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>39.60470199584961</v>
+        <v>31.74610137939453</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>41.57899475097656</v>
+        <v>31.58828735351562</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>40.55490112304688</v>
+        <v>31.57320976257324</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>40.35808181762695</v>
+        <v>31.5753173828125</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>42.17121505737305</v>
+        <v>32.04732513427734</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>38.95817565917969</v>
+        <v>31.97403907775879</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>40.81261825561523</v>
+        <v>31.76552772521973</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>40.84924697875977</v>
+        <v>32.00279998779297</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>40.20513534545898</v>
+        <v>31.70016479492188</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>39.78982925415039</v>
+        <v>33.64818572998047</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>38.96869277954102</v>
+        <v>31.58274078369141</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>39.41439437866211</v>
+        <v>31.58128547668457</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>38.99197769165039</v>
+        <v>31.58514785766602</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>38.53890609741211</v>
+        <v>33.3087043762207</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>38.42556762695312</v>
+        <v>31.68537139892578</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>41.58698654174805</v>
+        <v>31.57758331298828</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>41.4510383605957</v>
+        <v>31.71223449707031</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>39.42505264282227</v>
+        <v>32.66177749633789</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>38.64165115356445</v>
+        <v>31.5716724395752</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>41.73225784301758</v>
+        <v>31.54740715026855</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>39.1225471496582</v>
+        <v>31.81972122192383</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>38.42280960083008</v>
+        <v>31.56201553344727</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>40.63486862182617</v>
+        <v>33.2191276550293</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>39.86452102661133</v>
+        <v>31.60178756713867</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>39.8658561706543</v>
+        <v>32.02521514892578</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>39.03408432006836</v>
+        <v>31.58551788330078</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>40.45323944091797</v>
+        <v>31.74250793457031</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>39.41534805297852</v>
+        <v>31.89716339111328</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>40.24658584594727</v>
+        <v>31.91871070861816</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>39.60396957397461</v>
+        <v>31.68397903442383</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>38.40553665161133</v>
+        <v>31.55424308776855</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>38.1118049621582</v>
+        <v>31.75486755371094</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>40.52603912353516</v>
+        <v>31.65304374694824</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>38.7218017578125</v>
+        <v>31.62773704528809</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>39.02712631225586</v>
+        <v>31.82551193237305</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>37.94182968139648</v>
+        <v>31.60947608947754</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>40.97891616821289</v>
+        <v>32.33231353759766</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>39.11861801147461</v>
+        <v>32.11133575439453</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>40.48466110229492</v>
+        <v>31.73894119262695</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>37.46691513061523</v>
+        <v>31.66607284545898</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>39.29864883422852</v>
+        <v>32.52265167236328</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>39.7236442565918</v>
+        <v>33.09454345703125</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>40.91933059692383</v>
+        <v>34.38368988037109</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>39.47597503662109</v>
+        <v>31.67136573791504</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>39.56452178955078</v>
+        <v>31.57656478881836</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>38.06669616699219</v>
+        <v>31.91496086120605</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>38.9506950378418</v>
+        <v>31.77339553833008</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>40.74162673950195</v>
+        <v>31.59662818908691</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>37.92332077026367</v>
+        <v>31.73722457885742</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>39.62495803833008</v>
+        <v>31.63076400756836</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>40.21006393432617</v>
+        <v>31.7712574005127</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>38.34566116333008</v>
+        <v>31.7465705871582</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>38.42609024047852</v>
+        <v>31.67536544799805</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>38.96079635620117</v>
+        <v>32.46614837646484</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>39.08443832397461</v>
+        <v>31.57230949401855</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>38.56264877319336</v>
+        <v>31.61245536804199</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>40.16361999511719</v>
+        <v>31.66096496582031</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>40.00591659545898</v>
+        <v>31.63325500488281</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>38.20236587524414</v>
+        <v>32.34824752807617</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>39.45779800415039</v>
+        <v>31.71061325073242</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>39.0870246887207</v>
+        <v>33.16059875488281</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>39.12551116943359</v>
+        <v>31.59104919433594</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>39.80817794799805</v>
+        <v>31.58956909179688</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>38.53355026245117</v>
+        <v>31.77375030517578</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>39.22513961791992</v>
+        <v>31.7173957824707</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>39.48268508911133</v>
+        <v>31.95784759521484</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>40.50352478027344</v>
+        <v>31.60441970825195</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>40.14943313598633</v>
+        <v>31.76973724365234</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>40.58295822143555</v>
+        <v>31.62250900268555</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>38.08890151977539</v>
+        <v>31.62832450866699</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>37.68703079223633</v>
+        <v>32.42171859741211</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>40.25751876831055</v>
+        <v>31.94480895996094</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>40.60916519165039</v>
+        <v>31.71937942504883</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>40.19250106811523</v>
+        <v>31.65085601806641</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>37.27006149291992</v>
+        <v>31.61224746704102</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>39.76243209838867</v>
+        <v>32.42537307739258</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>37.91616821289062</v>
+        <v>32.11487579345703</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>40.23032760620117</v>
+        <v>31.83047866821289</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>38.96390914916992</v>
+        <v>34.26301956176758</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>39.0868034362793</v>
+        <v>31.68918991088867</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>38.28532028198242</v>
+        <v>31.70157241821289</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>39.25975799560547</v>
+        <v>32.83810806274414</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>38.83677291870117</v>
+        <v>32.57839965820312</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>39.95954895019531</v>
+        <v>31.66739273071289</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>39.61185455322266</v>
+        <v>31.95993423461914</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>39.08585739135742</v>
+        <v>31.75143432617188</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>38.64306259155273</v>
+        <v>31.80268096923828</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>37.19343566894531</v>
+        <v>31.63259315490723</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>39.23334121704102</v>
+        <v>31.68810844421387</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>40.1843376159668</v>
+        <v>32.14336395263672</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>40.00788497924805</v>
+        <v>31.98288345336914</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>40.45188903808594</v>
+        <v>33.00058746337891</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>41.08536148071289</v>
+        <v>31.90459632873535</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>37.3665885925293</v>
+        <v>32.22233581542969</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>39.51541519165039</v>
+        <v>31.75527572631836</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>39.08919906616211</v>
+        <v>32.09947204589844</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>38.23922348022461</v>
+        <v>31.6412353515625</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>39.53964614868164</v>
+        <v>31.72897911071777</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>38.0772705078125</v>
+        <v>31.58375930786133</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>38.80920791625977</v>
+        <v>31.88782501220703</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>38.51709365844727</v>
+        <v>31.57386016845703</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>39.64424133300781</v>
+        <v>31.58243560791016</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>40.20805740356445</v>
+        <v>32.06781768798828</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>39.13358306884766</v>
+        <v>32.16236877441406</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>38.8786506652832</v>
+        <v>31.7799072265625</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>38.82844924926758</v>
+        <v>31.61509323120117</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>38.82205200195312</v>
+        <v>31.65510749816895</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>38.55751419067383</v>
+        <v>31.59866142272949</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>37.6651496887207</v>
+        <v>32.32982635498047</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>37.4798698425293</v>
+        <v>31.5836296081543</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>39.94740676879883</v>
+        <v>32.25831985473633</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>40.14709854125977</v>
+        <v>31.6915340423584</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>37.99972152709961</v>
+        <v>31.82512664794922</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>39.19991683959961</v>
+        <v>31.59765243530273</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>38.6794319152832</v>
+        <v>32.00667953491211</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>38.41331100463867</v>
+        <v>32.03220367431641</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>38.97227096557617</v>
+        <v>31.65461349487305</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>40.64475631713867</v>
+        <v>31.6109504699707</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>37.94185256958008</v>
+        <v>33.11439514160156</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>41.8181266784668</v>
+        <v>31.64641189575195</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>38.99647903442383</v>
+        <v>31.57786750793457</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>38.60202407836914</v>
+        <v>31.91775894165039</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>38.69360733032227</v>
+        <v>31.58314323425293</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>36.46691513061523</v>
+        <v>31.58907699584961</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>36.22225952148438</v>
+        <v>31.73108291625977</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>41.24358749389648</v>
+        <v>31.64997863769531</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>39.44124984741211</v>
+        <v>32.0039176940918</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>40.12633895874023</v>
+        <v>31.64355850219727</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>40.1938362121582</v>
+        <v>31.66517448425293</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>37.23306655883789</v>
+        <v>31.59440803527832</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>36.27138519287109</v>
+        <v>31.80725860595703</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>37.52004623413086</v>
+        <v>32.03167724609375</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>37.29922866821289</v>
+        <v>31.62912750244141</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>41.08074569702148</v>
+        <v>31.5806999206543</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>39.19416427612305</v>
+        <v>31.79958915710449</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>37.37468338012695</v>
+        <v>31.70861434936523</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>38.46353149414062</v>
+        <v>31.55768203735352</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>37.94584274291992</v>
+        <v>32.4826774597168</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>36.28196716308594</v>
+        <v>31.65649032592773</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>39.83304214477539</v>
+        <v>32.276123046875</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>38.60622024536133</v>
+        <v>31.80315971374512</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>39.2653694152832</v>
+        <v>31.57827186584473</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>38.86836242675781</v>
+        <v>32.45248413085938</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>37.91785049438477</v>
+        <v>31.63737869262695</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>37.55012130737305</v>
+        <v>31.58218193054199</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>39.92596817016602</v>
+        <v>31.67469024658203</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>39.99953842163086</v>
+        <v>32.0986328125</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>38.76320648193359</v>
+        <v>31.63806915283203</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>38.29349136352539</v>
+        <v>31.8629035949707</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>37.9231071472168</v>
+        <v>31.66472244262695</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>39.02112197875977</v>
+        <v>31.63564300537109</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>37.79771423339844</v>
+        <v>32.15850448608398</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>39.67891311645508</v>
+        <v>32.06900024414062</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>38.06906509399414</v>
+        <v>32.21300888061523</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>38.90866851806641</v>
+        <v>31.78351211547852</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>39.92268753051758</v>
+        <v>31.66779518127441</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>38.95136642456055</v>
+        <v>31.79413223266602</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>38.8416748046875</v>
+        <v>31.75815963745117</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>38.22636795043945</v>
+        <v>31.86561393737793</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>36.57326507568359</v>
+        <v>31.60980606079102</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>37.59356307983398</v>
+        <v>32.58847808837891</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>38.57439422607422</v>
+        <v>31.73760604858398</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>37.3765983581543</v>
+        <v>31.74210357666016</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>38.28493118286133</v>
+        <v>31.61955642700195</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>38.2859992980957</v>
+        <v>31.57967758178711</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>39.62884140014648</v>
+        <v>32.00497055053711</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>39.26726150512695</v>
+        <v>33.01531219482422</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>38.78525161743164</v>
+        <v>32.14790725708008</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>38.64297103881836</v>
+        <v>32.51190948486328</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>38.51215744018555</v>
+        <v>31.73834228515625</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>37.74322128295898</v>
+        <v>31.57091522216797</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>37.95504379272461</v>
+        <v>32.01377868652344</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>37.93659591674805</v>
+        <v>31.5897331237793</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>38.72818374633789</v>
+        <v>31.92427062988281</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>38.88988876342773</v>
+        <v>31.61450576782227</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>38.1706428527832</v>
+        <v>31.59092330932617</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>36.33150863647461</v>
+        <v>31.58119201660156</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>38.79848098754883</v>
+        <v>31.67290115356445</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>39.72132873535156</v>
+        <v>33.52158355712891</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>38.30520629882812</v>
+        <v>31.74659156799316</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>39.14642715454102</v>
+        <v>32.40658187866211</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>36.47949981689453</v>
+        <v>31.64204025268555</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>39.88704299926758</v>
+        <v>31.70504951477051</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>38.86108779907227</v>
+        <v>31.78786277770996</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>38.40890884399414</v>
+        <v>31.84147071838379</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>37.71593475341797</v>
+        <v>32.26737976074219</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>38.69805526733398</v>
+        <v>31.86853790283203</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>39.30581283569336</v>
+        <v>31.76817512512207</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>37.63569259643555</v>
+        <v>31.64000701904297</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>38.60434341430664</v>
+        <v>31.56493949890137</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>39.35311508178711</v>
+        <v>31.58704376220703</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>38.62178421020508</v>
+        <v>31.85520553588867</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>39.13623428344727</v>
+        <v>32.00385665893555</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>37.32866668701172</v>
+        <v>31.70818710327148</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>37.9515495300293</v>
+        <v>31.97719573974609</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>39.7196044921875</v>
+        <v>32.24769592285156</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>39.60457229614258</v>
+        <v>31.61715507507324</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>38.82683563232422</v>
+        <v>31.58638000488281</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>39.56263732910156</v>
+        <v>32.00312042236328</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>38.92025375366211</v>
+        <v>32.32569885253906</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>37.74010848999023</v>
+        <v>31.80920028686523</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>37.15464401245117</v>
+        <v>31.54775047302246</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>39.45799255371094</v>
+        <v>31.84748458862305</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>39.51794052124023</v>
+        <v>31.6258659362793</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>37.78892135620117</v>
+        <v>31.74727439880371</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>38.27118301391602</v>
+        <v>31.78041839599609</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>38.94863128662109</v>
+        <v>31.69014358520508</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>37.06791305541992</v>
+        <v>31.69623374938965</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>38.67525100708008</v>
+        <v>31.65407180786133</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>37.9478874206543</v>
+        <v>31.65283584594727</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>37.74514389038086</v>
+        <v>31.87020874023438</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>37.01922225952148</v>
+        <v>33.58436965942383</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>36.12670135498047</v>
+        <v>31.98679733276367</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>37.28393936157227</v>
+        <v>31.59020233154297</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>35.97738265991211</v>
+        <v>31.72078514099121</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>37.14073181152344</v>
+        <v>31.9862060546875</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>38.74666976928711</v>
+        <v>31.84266662597656</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>38.25383377075195</v>
+        <v>31.87665176391602</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>39.31429672241211</v>
+        <v>31.94953536987305</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>40.44418716430664</v>
+        <v>31.71828269958496</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>40.20263290405273</v>
+        <v>31.74607086181641</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>35.02069091796875</v>
+        <v>31.87324905395508</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>39.5411491394043</v>
+        <v>32.73590850830078</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>38.09196090698242</v>
+        <v>31.94322967529297</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>37.37340927124023</v>
+        <v>31.65755271911621</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>39.21335220336914</v>
+        <v>31.66298294067383</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>38.62894439697266</v>
+        <v>32.19858551025391</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>37.54813766479492</v>
+        <v>31.73306083679199</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>38.65874099731445</v>
+        <v>31.90354919433594</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>37.80367660522461</v>
+        <v>32.17501831054688</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>37.10249710083008</v>
+        <v>31.59628295898438</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>37.78581619262695</v>
+        <v>33.05340576171875</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>37.48826217651367</v>
+        <v>31.74182510375977</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>38.97612762451172</v>
+        <v>31.68429374694824</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>36.38887023925781</v>
+        <v>31.8090991973877</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>37.45485305786133</v>
+        <v>31.58454895019531</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>38.7837028503418</v>
+        <v>31.68349456787109</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>37.8886833190918</v>
+        <v>31.58612442016602</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>38.30994415283203</v>
+        <v>31.79966163635254</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>37.11247634887695</v>
+        <v>32.74709320068359</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>38.78912353515625</v>
+        <v>32.04534530639648</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>37.17645645141602</v>
+        <v>31.66200637817383</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>38.12241744995117</v>
+        <v>31.6085205078125</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>39.60473251342773</v>
+        <v>31.61165618896484</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>38.96710586547852</v>
+        <v>31.61726570129395</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>38.51784133911133</v>
+        <v>31.79717254638672</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>38.57792663574219</v>
+        <v>32.58211517333984</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>39.01153182983398</v>
+        <v>31.69855499267578</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>37.73017501831055</v>
+        <v>31.70015716552734</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>37.84375381469727</v>
+        <v>31.68659591674805</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>38.02813720703125</v>
+        <v>31.97275352478027</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>36.81681442260742</v>
+        <v>32.13445663452148</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>39.21368789672852</v>
+        <v>31.69016647338867</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>38.67718887329102</v>
+        <v>31.61414337158203</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>38.41512680053711</v>
+        <v>32.73847961425781</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>37.3849983215332</v>
+        <v>31.76532173156738</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>36.61235809326172</v>
+        <v>31.70489311218262</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>38.21181106567383</v>
+        <v>31.58977508544922</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>35.94642639160156</v>
+        <v>31.88127517700195</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>34.6128044128418</v>
+        <v>31.69680786132812</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>37.68207168579102</v>
+        <v>31.56129455566406</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>37.59180450439453</v>
+        <v>31.69688415527344</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>38.22293090820312</v>
+        <v>32.72666168212891</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>37.04110336303711</v>
+        <v>31.78242683410645</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>37.08299255371094</v>
+        <v>32.43184280395508</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>37.35580825805664</v>
+        <v>32.09603118896484</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>38.04573822021484</v>
+        <v>31.94105529785156</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>37.91748428344727</v>
+        <v>32.20635223388672</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>37.14564895629883</v>
+        <v>31.61539077758789</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>36.31875228881836</v>
+        <v>31.6790885925293</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>38.07830429077148</v>
+        <v>31.58395385742188</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>39.41973495483398</v>
+        <v>32.73217010498047</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>38.16267013549805</v>
+        <v>31.95057106018066</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>37.6384162902832</v>
+        <v>33.41232299804688</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>37.57656860351562</v>
+        <v>31.79562377929688</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>38.20928192138672</v>
+        <v>31.56047058105469</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>38.30874252319336</v>
+        <v>31.66275596618652</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>37.9500732421875</v>
+        <v>32.00128936767578</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>35.46361923217773</v>
+        <v>33.05826568603516</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>38.80853652954102</v>
+        <v>31.56536293029785</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>37.21054840087891</v>
+        <v>31.61038780212402</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>38.07548904418945</v>
+        <v>32.04848480224609</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>37.10782623291016</v>
+        <v>33.16400527954102</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>38.69661712646484</v>
+        <v>31.72927856445312</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>36.32708358764648</v>
+        <v>31.90346527099609</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>38.16469192504883</v>
+        <v>31.62437057495117</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>37.16747283935547</v>
+        <v>31.68110275268555</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>37.29700088500977</v>
+        <v>31.81569671630859</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>35.92349624633789</v>
+        <v>31.94247055053711</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>38.68703842163086</v>
+        <v>31.650634765625</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>37.02645874023438</v>
+        <v>31.60900115966797</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>37.30829238891602</v>
+        <v>31.6837043762207</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>38.28212356567383</v>
+        <v>33.94584655761719</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>37.86902618408203</v>
+        <v>32.50588989257812</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>36.85564422607422</v>
+        <v>32.14257049560547</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>37.31683731079102</v>
+        <v>31.58809280395508</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>37.21671676635742</v>
+        <v>31.66982650756836</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>38.69269943237305</v>
+        <v>31.59075164794922</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>37.58285903930664</v>
+        <v>31.56723022460938</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>38.3023567199707</v>
+        <v>31.7242546081543</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>38.56613159179688</v>
+        <v>31.59518051147461</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>35.9257698059082</v>
+        <v>31.6010913848877</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>39.25431442260742</v>
+        <v>31.75661277770996</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>37.70923614501953</v>
+        <v>31.63896179199219</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>37.73675155639648</v>
+        <v>31.74844360351562</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>38.64322280883789</v>
+        <v>31.72471237182617</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>36.70928955078125</v>
+        <v>32.00451278686523</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>35.95408248901367</v>
+        <v>31.9837760925293</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>37.2417106628418</v>
+        <v>32.12215423583984</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>37.3759765625</v>
+        <v>31.69613647460938</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>37.46726226806641</v>
+        <v>31.61441421508789</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>35.63266372680664</v>
+        <v>32.08298873901367</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>38.52647018432617</v>
+        <v>31.62007904052734</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>38.14085006713867</v>
+        <v>31.58796310424805</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>36.73188400268555</v>
+        <v>31.58001518249512</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>37.93366622924805</v>
+        <v>31.58040428161621</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>36.80344009399414</v>
+        <v>31.99635696411133</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>38.25200653076172</v>
+        <v>31.76528549194336</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>38.03462600708008</v>
+        <v>32.01509857177734</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>35.87280654907227</v>
+        <v>31.77960586547852</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>37.9080924987793</v>
+        <v>32.1492919921875</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>36.76172637939453</v>
+        <v>31.86776924133301</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>37.11153411865234</v>
+        <v>32.02318572998047</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>36.3905143737793</v>
+        <v>32.19580078125</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>37.24585342407227</v>
+        <v>31.78759956359863</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>36.89047622680664</v>
+        <v>31.72318267822266</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>34.70624542236328</v>
+        <v>31.60663986206055</v>
       </c>
     </row>
     <row r="453">
@@ -4051,7 +4051,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>37.16548156738281</v>
+        <v>31.81149291992188</v>
       </c>
     </row>
     <row r="454">
@@ -4059,7 +4059,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>36.14054870605469</v>
+        <v>31.57823181152344</v>
       </c>
     </row>
     <row r="455">
@@ -4067,7 +4067,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>37.26703262329102</v>
+        <v>31.97880554199219</v>
       </c>
     </row>
     <row r="456">
@@ -4075,7 +4075,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>35.41811752319336</v>
+        <v>31.67318344116211</v>
       </c>
     </row>
     <row r="457">
@@ -4083,7 +4083,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>36.88720703125</v>
+        <v>31.97845840454102</v>
       </c>
     </row>
     <row r="458">
@@ -4091,7 +4091,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>37.62742614746094</v>
+        <v>31.64103698730469</v>
       </c>
     </row>
     <row r="459">
@@ -4099,7 +4099,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>37.61285781860352</v>
+        <v>31.63966941833496</v>
       </c>
     </row>
     <row r="460">
@@ -4107,7 +4107,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>36.6941032409668</v>
+        <v>31.88911056518555</v>
       </c>
     </row>
     <row r="461">
@@ -4115,7 +4115,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>38.79876708984375</v>
+        <v>31.60693168640137</v>
       </c>
     </row>
     <row r="462">
@@ -4123,7 +4123,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>38.60410690307617</v>
+        <v>32.87336349487305</v>
       </c>
     </row>
     <row r="463">
@@ -4131,7 +4131,7 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>36.28084945678711</v>
+        <v>31.69689559936523</v>
       </c>
     </row>
     <row r="464">
@@ -4139,7 +4139,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>37.63829803466797</v>
+        <v>31.61009216308594</v>
       </c>
     </row>
     <row r="465">
@@ -4147,7 +4147,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>36.98683547973633</v>
+        <v>31.58216285705566</v>
       </c>
     </row>
     <row r="466">
@@ -4155,7 +4155,7 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>39.12636947631836</v>
+        <v>31.57742309570312</v>
       </c>
     </row>
     <row r="467">
@@ -4163,7 +4163,7 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>37.95120239257812</v>
+        <v>31.92544174194336</v>
       </c>
     </row>
     <row r="468">
@@ -4171,7 +4171,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>38.04798126220703</v>
+        <v>32.68840789794922</v>
       </c>
     </row>
     <row r="469">
@@ -4179,7 +4179,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>36.82321929931641</v>
+        <v>31.58834838867188</v>
       </c>
     </row>
     <row r="470">
@@ -4187,7 +4187,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>36.37188720703125</v>
+        <v>31.7558479309082</v>
       </c>
     </row>
     <row r="471">
@@ -4195,7 +4195,7 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>36.96384429931641</v>
+        <v>31.59566497802734</v>
       </c>
     </row>
     <row r="472">
@@ -4203,7 +4203,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>35.09358596801758</v>
+        <v>32.45893096923828</v>
       </c>
     </row>
     <row r="473">
@@ -4211,7 +4211,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>36.91806411743164</v>
+        <v>31.7183837890625</v>
       </c>
     </row>
     <row r="474">
@@ -4219,7 +4219,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>38.05282211303711</v>
+        <v>31.73593330383301</v>
       </c>
     </row>
     <row r="475">
@@ -4227,7 +4227,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>36.70708084106445</v>
+        <v>31.62971878051758</v>
       </c>
     </row>
     <row r="476">
@@ -4235,7 +4235,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>37.85079574584961</v>
+        <v>31.58782577514648</v>
       </c>
     </row>
     <row r="477">
@@ -4243,7 +4243,7 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>37.05318832397461</v>
+        <v>32.17471694946289</v>
       </c>
     </row>
     <row r="478">
@@ -4251,7 +4251,7 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>35.83647537231445</v>
+        <v>32.23397827148438</v>
       </c>
     </row>
     <row r="479">
@@ -4259,7 +4259,7 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>36.53841400146484</v>
+        <v>31.96416473388672</v>
       </c>
     </row>
     <row r="480">
@@ -4267,7 +4267,7 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>36.95101547241211</v>
+        <v>31.64635467529297</v>
       </c>
     </row>
     <row r="481">
@@ -4275,7 +4275,7 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>33.81768798828125</v>
+        <v>32.00998687744141</v>
       </c>
     </row>
     <row r="482">
@@ -4283,7 +4283,7 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>35.84722900390625</v>
+        <v>31.73362350463867</v>
       </c>
     </row>
     <row r="483">
@@ -4291,7 +4291,7 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>38.07299423217773</v>
+        <v>31.65510368347168</v>
       </c>
     </row>
     <row r="484">
@@ -4299,7 +4299,7 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>36.21379089355469</v>
+        <v>32.21214294433594</v>
       </c>
     </row>
     <row r="485">
@@ -4307,7 +4307,7 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>37.21620559692383</v>
+        <v>31.86906623840332</v>
       </c>
     </row>
     <row r="486">
@@ -4315,7 +4315,7 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>37.55551147460938</v>
+        <v>31.73880195617676</v>
       </c>
     </row>
     <row r="487">
@@ -4323,7 +4323,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>36.25443649291992</v>
+        <v>31.653564453125</v>
       </c>
     </row>
     <row r="488">
@@ -4331,7 +4331,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>36.52908706665039</v>
+        <v>32.06716156005859</v>
       </c>
     </row>
     <row r="489">
@@ -4339,7 +4339,7 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>37.42707443237305</v>
+        <v>33.29161071777344</v>
       </c>
     </row>
     <row r="490">
@@ -4347,7 +4347,7 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>38.16866683959961</v>
+        <v>31.7686767578125</v>
       </c>
     </row>
     <row r="491">
@@ -4355,7 +4355,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>36.70653533935547</v>
+        <v>31.7847900390625</v>
       </c>
     </row>
     <row r="492">
@@ -4363,7 +4363,7 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>37.32751083374023</v>
+        <v>31.91983413696289</v>
       </c>
     </row>
     <row r="493">
@@ -4371,7 +4371,7 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>37.50048446655273</v>
+        <v>31.59708023071289</v>
       </c>
     </row>
     <row r="494">
@@ -4379,7 +4379,7 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>36.26122665405273</v>
+        <v>31.57014274597168</v>
       </c>
     </row>
     <row r="495">
@@ -4387,7 +4387,7 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>38.35269546508789</v>
+        <v>31.94809722900391</v>
       </c>
     </row>
     <row r="496">
@@ -4395,7 +4395,7 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>39.50529861450195</v>
+        <v>32.24360275268555</v>
       </c>
     </row>
     <row r="497">
@@ -4403,7 +4403,7 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>37.04208755493164</v>
+        <v>31.59757614135742</v>
       </c>
     </row>
     <row r="498">
@@ -4411,7 +4411,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>34.9193115234375</v>
+        <v>32.11230087280273</v>
       </c>
     </row>
     <row r="499">
@@ -4419,7 +4419,7 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>36.68505859375</v>
+        <v>32.12821197509766</v>
       </c>
     </row>
     <row r="500">
@@ -4427,7 +4427,7 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>37.18867111206055</v>
+        <v>32.53274536132812</v>
       </c>
     </row>
     <row r="501">
@@ -4435,7 +4435,7 @@
         <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>35.77173614501953</v>
+        <v>32.24407577514648</v>
       </c>
     </row>
     <row r="502">
@@ -4443,7 +4443,7 @@
         <v>500</v>
       </c>
       <c r="B502" t="n">
-        <v>37.53713607788086</v>
+        <v>31.57905197143555</v>
       </c>
     </row>
     <row r="503">
@@ -4451,7 +4451,7 @@
         <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>37.1928596496582</v>
+        <v>32.83415222167969</v>
       </c>
     </row>
     <row r="504">
@@ -4459,7 +4459,7 @@
         <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>36.718994140625</v>
+        <v>31.93971633911133</v>
       </c>
     </row>
     <row r="505">
@@ -4467,7 +4467,7 @@
         <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>35.7371711730957</v>
+        <v>31.86742973327637</v>
       </c>
     </row>
     <row r="506">
@@ -4475,7 +4475,7 @@
         <v>504</v>
       </c>
       <c r="B506" t="n">
-        <v>37.07121658325195</v>
+        <v>31.61927032470703</v>
       </c>
     </row>
     <row r="507">
@@ -4483,7 +4483,7 @@
         <v>505</v>
       </c>
       <c r="B507" t="n">
-        <v>36.39422225952148</v>
+        <v>31.80891799926758</v>
       </c>
     </row>
     <row r="508">
@@ -4491,7 +4491,7 @@
         <v>506</v>
       </c>
       <c r="B508" t="n">
-        <v>37.44072341918945</v>
+        <v>31.60995864868164</v>
       </c>
     </row>
     <row r="509">
@@ -4499,7 +4499,7 @@
         <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>38.18305969238281</v>
+        <v>32.02489852905273</v>
       </c>
     </row>
     <row r="510">
@@ -4507,7 +4507,7 @@
         <v>508</v>
       </c>
       <c r="B510" t="n">
-        <v>38.01058578491211</v>
+        <v>31.66401481628418</v>
       </c>
     </row>
     <row r="511">
@@ -4515,7 +4515,7 @@
         <v>509</v>
       </c>
       <c r="B511" t="n">
-        <v>36.51217651367188</v>
+        <v>31.69474601745605</v>
       </c>
     </row>
     <row r="512">
@@ -4523,7 +4523,7 @@
         <v>510</v>
       </c>
       <c r="B512" t="n">
-        <v>36.42045974731445</v>
+        <v>31.84490013122559</v>
       </c>
     </row>
     <row r="513">
@@ -4531,7 +4531,7 @@
         <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>38.23066329956055</v>
+        <v>31.8307056427002</v>
       </c>
     </row>
     <row r="514">
@@ -4539,7 +4539,7 @@
         <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>37.39763259887695</v>
+        <v>31.62687301635742</v>
       </c>
     </row>
     <row r="515">
@@ -4547,7 +4547,7 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>37.66735458374023</v>
+        <v>32.61780166625977</v>
       </c>
     </row>
     <row r="516">
@@ -4555,7 +4555,7 @@
         <v>514</v>
       </c>
       <c r="B516" t="n">
-        <v>38.14519119262695</v>
+        <v>31.65694427490234</v>
       </c>
     </row>
     <row r="517">
@@ -4563,7 +4563,7 @@
         <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>36.28083038330078</v>
+        <v>31.78927040100098</v>
       </c>
     </row>
     <row r="518">
@@ -4571,7 +4571,7 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>37.75876617431641</v>
+        <v>31.94513702392578</v>
       </c>
     </row>
     <row r="519">
@@ -4579,7 +4579,7 @@
         <v>517</v>
       </c>
       <c r="B519" t="n">
-        <v>36.55951309204102</v>
+        <v>31.72526168823242</v>
       </c>
     </row>
     <row r="520">
@@ -4587,7 +4587,7 @@
         <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>35.50759506225586</v>
+        <v>31.62334060668945</v>
       </c>
     </row>
     <row r="521">
@@ -4595,7 +4595,7 @@
         <v>519</v>
       </c>
       <c r="B521" t="n">
-        <v>36.97048568725586</v>
+        <v>31.68353652954102</v>
       </c>
     </row>
     <row r="522">
@@ -4603,7 +4603,7 @@
         <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>37.37851715087891</v>
+        <v>31.58737564086914</v>
       </c>
     </row>
     <row r="523">
@@ -4611,7 +4611,7 @@
         <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>37.83620834350586</v>
+        <v>33.92648315429688</v>
       </c>
     </row>
     <row r="524">
@@ -4619,7 +4619,7 @@
         <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>35.83832168579102</v>
+        <v>32.13306045532227</v>
       </c>
     </row>
     <row r="525">
@@ -4627,7 +4627,7 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>37.92216110229492</v>
+        <v>31.59978866577148</v>
       </c>
     </row>
     <row r="526">
@@ -4635,7 +4635,7 @@
         <v>524</v>
       </c>
       <c r="B526" t="n">
-        <v>36.86985778808594</v>
+        <v>31.73796081542969</v>
       </c>
     </row>
     <row r="527">
@@ -4643,7 +4643,7 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>36.50479507446289</v>
+        <v>31.72443580627441</v>
       </c>
     </row>
     <row r="528">
@@ -4651,7 +4651,7 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>37.2952995300293</v>
+        <v>31.73994636535645</v>
       </c>
     </row>
     <row r="529">
@@ -4659,7 +4659,7 @@
         <v>527</v>
       </c>
       <c r="B529" t="n">
-        <v>35.16899108886719</v>
+        <v>31.83057594299316</v>
       </c>
     </row>
     <row r="530">
@@ -4667,7 +4667,7 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>35.8553581237793</v>
+        <v>31.62409973144531</v>
       </c>
     </row>
     <row r="531">
@@ -4675,7 +4675,7 @@
         <v>529</v>
       </c>
       <c r="B531" t="n">
-        <v>33.57480239868164</v>
+        <v>31.79242324829102</v>
       </c>
     </row>
     <row r="532">
@@ -4683,7 +4683,7 @@
         <v>530</v>
       </c>
       <c r="B532" t="n">
-        <v>35.61187744140625</v>
+        <v>31.83713722229004</v>
       </c>
     </row>
     <row r="533">
@@ -4691,7 +4691,7 @@
         <v>531</v>
       </c>
       <c r="B533" t="n">
-        <v>36.40884780883789</v>
+        <v>31.58357238769531</v>
       </c>
     </row>
     <row r="534">
@@ -4699,7 +4699,7 @@
         <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>35.84615325927734</v>
+        <v>31.58005142211914</v>
       </c>
     </row>
     <row r="535">
@@ -4707,7 +4707,7 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>37.52504730224609</v>
+        <v>31.91049194335938</v>
       </c>
     </row>
     <row r="536">
@@ -4715,7 +4715,7 @@
         <v>534</v>
       </c>
       <c r="B536" t="n">
-        <v>37.61791610717773</v>
+        <v>31.75455474853516</v>
       </c>
     </row>
     <row r="537">
@@ -4723,7 +4723,7 @@
         <v>535</v>
       </c>
       <c r="B537" t="n">
-        <v>36.61729431152344</v>
+        <v>32.10227203369141</v>
       </c>
     </row>
     <row r="538">
@@ -4731,7 +4731,7 @@
         <v>536</v>
       </c>
       <c r="B538" t="n">
-        <v>36.87006759643555</v>
+        <v>31.7016658782959</v>
       </c>
     </row>
     <row r="539">
@@ -4739,7 +4739,7 @@
         <v>537</v>
       </c>
       <c r="B539" t="n">
-        <v>35.69569778442383</v>
+        <v>31.80048751831055</v>
       </c>
     </row>
     <row r="540">
@@ -4747,7 +4747,7 @@
         <v>538</v>
       </c>
       <c r="B540" t="n">
-        <v>35.27881240844727</v>
+        <v>31.55350875854492</v>
       </c>
     </row>
     <row r="541">
@@ -4755,7 +4755,7 @@
         <v>539</v>
       </c>
       <c r="B541" t="n">
-        <v>36.60977554321289</v>
+        <v>31.70033264160156</v>
       </c>
     </row>
     <row r="542">
@@ -4763,7 +4763,7 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>37.85177230834961</v>
+        <v>31.5725212097168</v>
       </c>
     </row>
     <row r="543">
@@ -4771,7 +4771,7 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>36.47526931762695</v>
+        <v>32.0712776184082</v>
       </c>
     </row>
     <row r="544">
@@ -4779,7 +4779,7 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>36.86706924438477</v>
+        <v>32.29686737060547</v>
       </c>
     </row>
     <row r="545">
@@ -4787,7 +4787,7 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>35.34010314941406</v>
+        <v>31.65406227111816</v>
       </c>
     </row>
     <row r="546">
@@ -4795,7 +4795,7 @@
         <v>544</v>
       </c>
       <c r="B546" t="n">
-        <v>36.74065017700195</v>
+        <v>31.79319000244141</v>
       </c>
     </row>
     <row r="547">
@@ -4803,7 +4803,7 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>37.51107406616211</v>
+        <v>31.80181503295898</v>
       </c>
     </row>
     <row r="548">
@@ -4811,7 +4811,7 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>36.86035537719727</v>
+        <v>31.69173622131348</v>
       </c>
     </row>
     <row r="549">
@@ -4819,7 +4819,7 @@
         <v>547</v>
       </c>
       <c r="B549" t="n">
-        <v>36.67620468139648</v>
+        <v>31.75309371948242</v>
       </c>
     </row>
     <row r="550">
@@ -4827,7 +4827,7 @@
         <v>548</v>
       </c>
       <c r="B550" t="n">
-        <v>36.43490982055664</v>
+        <v>32.40281677246094</v>
       </c>
     </row>
     <row r="551">
@@ -4835,7 +4835,7 @@
         <v>549</v>
       </c>
       <c r="B551" t="n">
-        <v>35.52316665649414</v>
+        <v>31.66521453857422</v>
       </c>
     </row>
     <row r="552">
@@ -4843,7 +4843,7 @@
         <v>550</v>
       </c>
       <c r="B552" t="n">
-        <v>38.0712776184082</v>
+        <v>31.63521766662598</v>
       </c>
     </row>
     <row r="553">
@@ -4851,7 +4851,7 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>37.58720397949219</v>
+        <v>31.6417236328125</v>
       </c>
     </row>
     <row r="554">
@@ -4859,7 +4859,7 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>34.98039627075195</v>
+        <v>32.05617523193359</v>
       </c>
     </row>
     <row r="555">
@@ -4867,7 +4867,7 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>36.16141128540039</v>
+        <v>31.780029296875</v>
       </c>
     </row>
     <row r="556">
@@ -4875,7 +4875,7 @@
         <v>554</v>
       </c>
       <c r="B556" t="n">
-        <v>37.00478744506836</v>
+        <v>31.90949630737305</v>
       </c>
     </row>
     <row r="557">
@@ -4883,7 +4883,7 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>37.41151809692383</v>
+        <v>31.82623100280762</v>
       </c>
     </row>
     <row r="558">
@@ -4891,7 +4891,7 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>37.03131103515625</v>
+        <v>31.72079467773438</v>
       </c>
     </row>
     <row r="559">
@@ -4899,7 +4899,7 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>35.63266372680664</v>
+        <v>31.59369659423828</v>
       </c>
     </row>
     <row r="560">
@@ -4907,7 +4907,7 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>36.61428451538086</v>
+        <v>31.86447715759277</v>
       </c>
     </row>
     <row r="561">
@@ -4915,7 +4915,7 @@
         <v>559</v>
       </c>
       <c r="B561" t="n">
-        <v>37.3225212097168</v>
+        <v>31.56773376464844</v>
       </c>
     </row>
     <row r="562">
@@ -4923,7 +4923,7 @@
         <v>560</v>
       </c>
       <c r="B562" t="n">
-        <v>36.51144409179688</v>
+        <v>31.75448608398438</v>
       </c>
     </row>
     <row r="563">
@@ -4931,7 +4931,7 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>37.38116836547852</v>
+        <v>31.61642074584961</v>
       </c>
     </row>
     <row r="564">
@@ -4939,7 +4939,7 @@
         <v>562</v>
       </c>
       <c r="B564" t="n">
-        <v>35.21833419799805</v>
+        <v>31.56093978881836</v>
       </c>
     </row>
     <row r="565">
@@ -4947,7 +4947,7 @@
         <v>563</v>
       </c>
       <c r="B565" t="n">
-        <v>36.0131950378418</v>
+        <v>31.71628952026367</v>
       </c>
     </row>
     <row r="566">
@@ -4955,7 +4955,7 @@
         <v>564</v>
       </c>
       <c r="B566" t="n">
-        <v>36.5726318359375</v>
+        <v>31.60477066040039</v>
       </c>
     </row>
     <row r="567">
@@ -4963,7 +4963,7 @@
         <v>565</v>
       </c>
       <c r="B567" t="n">
-        <v>37.7403450012207</v>
+        <v>31.59695434570312</v>
       </c>
     </row>
     <row r="568">
@@ -4971,7 +4971,7 @@
         <v>566</v>
       </c>
       <c r="B568" t="n">
-        <v>38.03197860717773</v>
+        <v>31.59981918334961</v>
       </c>
     </row>
     <row r="569">
@@ -4979,7 +4979,7 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>36.54354858398438</v>
+        <v>31.80110931396484</v>
       </c>
     </row>
     <row r="570">
@@ -4987,7 +4987,7 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>34.69060134887695</v>
+        <v>31.61645126342773</v>
       </c>
     </row>
     <row r="571">
@@ -4995,7 +4995,7 @@
         <v>569</v>
       </c>
       <c r="B571" t="n">
-        <v>36.82506942749023</v>
+        <v>31.58004570007324</v>
       </c>
     </row>
     <row r="572">
@@ -5003,7 +5003,7 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>36.73790740966797</v>
+        <v>31.6524658203125</v>
       </c>
     </row>
     <row r="573">
@@ -5011,7 +5011,7 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>37.03631973266602</v>
+        <v>32.6905632019043</v>
       </c>
     </row>
     <row r="574">
@@ -5019,7 +5019,7 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>35.91494369506836</v>
+        <v>31.75991058349609</v>
       </c>
     </row>
     <row r="575">
@@ -5027,7 +5027,7 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>37.19154739379883</v>
+        <v>31.6954345703125</v>
       </c>
     </row>
     <row r="576">
@@ -5035,7 +5035,7 @@
         <v>574</v>
       </c>
       <c r="B576" t="n">
-        <v>36.26925277709961</v>
+        <v>32.09258270263672</v>
       </c>
     </row>
     <row r="577">
@@ -5043,7 +5043,7 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>35.41761779785156</v>
+        <v>31.87800979614258</v>
       </c>
     </row>
     <row r="578">
@@ -5051,7 +5051,7 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>36.76333999633789</v>
+        <v>32.14708709716797</v>
       </c>
     </row>
     <row r="579">
@@ -5059,7 +5059,7 @@
         <v>577</v>
       </c>
       <c r="B579" t="n">
-        <v>37.1133918762207</v>
+        <v>31.70314025878906</v>
       </c>
     </row>
     <row r="580">
@@ -5067,7 +5067,7 @@
         <v>578</v>
       </c>
       <c r="B580" t="n">
-        <v>36.47766876220703</v>
+        <v>31.7133731842041</v>
       </c>
     </row>
     <row r="581">
@@ -5075,7 +5075,7 @@
         <v>579</v>
       </c>
       <c r="B581" t="n">
-        <v>35.99501800537109</v>
+        <v>31.65354156494141</v>
       </c>
     </row>
     <row r="582">
@@ -5083,7 +5083,7 @@
         <v>580</v>
       </c>
       <c r="B582" t="n">
-        <v>37.40508651733398</v>
+        <v>31.65623092651367</v>
       </c>
     </row>
     <row r="583">
@@ -5091,7 +5091,7 @@
         <v>581</v>
       </c>
       <c r="B583" t="n">
-        <v>37.79306411743164</v>
+        <v>31.9660816192627</v>
       </c>
     </row>
     <row r="584">
@@ -5099,7 +5099,7 @@
         <v>582</v>
       </c>
       <c r="B584" t="n">
-        <v>35.36030197143555</v>
+        <v>31.6125602722168</v>
       </c>
     </row>
     <row r="585">
@@ -5107,7 +5107,7 @@
         <v>583</v>
       </c>
       <c r="B585" t="n">
-        <v>35.74806594848633</v>
+        <v>31.98345947265625</v>
       </c>
     </row>
     <row r="586">
@@ -5115,7 +5115,7 @@
         <v>584</v>
       </c>
       <c r="B586" t="n">
-        <v>35.55912017822266</v>
+        <v>31.60620498657227</v>
       </c>
     </row>
     <row r="587">
@@ -5123,7 +5123,7 @@
         <v>585</v>
       </c>
       <c r="B587" t="n">
-        <v>36.12725067138672</v>
+        <v>31.62153244018555</v>
       </c>
     </row>
     <row r="588">
@@ -5131,7 +5131,7 @@
         <v>586</v>
       </c>
       <c r="B588" t="n">
-        <v>38.02982711791992</v>
+        <v>31.72662353515625</v>
       </c>
     </row>
     <row r="589">
@@ -5139,7 +5139,7 @@
         <v>587</v>
       </c>
       <c r="B589" t="n">
-        <v>35.328369140625</v>
+        <v>31.60610580444336</v>
       </c>
     </row>
     <row r="590">
@@ -5147,7 +5147,7 @@
         <v>588</v>
       </c>
       <c r="B590" t="n">
-        <v>36.8870849609375</v>
+        <v>31.78549385070801</v>
       </c>
     </row>
     <row r="591">
@@ -5155,7 +5155,7 @@
         <v>589</v>
       </c>
       <c r="B591" t="n">
-        <v>37.87098693847656</v>
+        <v>31.96917152404785</v>
       </c>
     </row>
     <row r="592">
@@ -5163,7 +5163,7 @@
         <v>590</v>
       </c>
       <c r="B592" t="n">
-        <v>34.54825973510742</v>
+        <v>31.59102058410645</v>
       </c>
     </row>
     <row r="593">
@@ -5171,7 +5171,7 @@
         <v>591</v>
       </c>
       <c r="B593" t="n">
-        <v>35.8381233215332</v>
+        <v>31.86741638183594</v>
       </c>
     </row>
     <row r="594">
@@ -5179,7 +5179,7 @@
         <v>592</v>
       </c>
       <c r="B594" t="n">
-        <v>35.82554244995117</v>
+        <v>32.35484313964844</v>
       </c>
     </row>
     <row r="595">
@@ -5187,7 +5187,7 @@
         <v>593</v>
       </c>
       <c r="B595" t="n">
-        <v>35.83552932739258</v>
+        <v>31.71968078613281</v>
       </c>
     </row>
     <row r="596">
@@ -5195,7 +5195,7 @@
         <v>594</v>
       </c>
       <c r="B596" t="n">
-        <v>36.52182388305664</v>
+        <v>31.71956253051758</v>
       </c>
     </row>
     <row r="597">
@@ -5203,7 +5203,7 @@
         <v>595</v>
       </c>
       <c r="B597" t="n">
-        <v>33.38776397705078</v>
+        <v>31.68086433410645</v>
       </c>
     </row>
     <row r="598">
@@ -5211,7 +5211,7 @@
         <v>596</v>
       </c>
       <c r="B598" t="n">
-        <v>36.73743057250977</v>
+        <v>32.64358139038086</v>
       </c>
     </row>
     <row r="599">
@@ -5219,7 +5219,7 @@
         <v>597</v>
       </c>
       <c r="B599" t="n">
-        <v>36.38464736938477</v>
+        <v>31.91463088989258</v>
       </c>
     </row>
     <row r="600">
@@ -5227,7 +5227,7 @@
         <v>598</v>
       </c>
       <c r="B600" t="n">
-        <v>37.39510345458984</v>
+        <v>31.79254150390625</v>
       </c>
     </row>
     <row r="601">
@@ -5235,7 +5235,7 @@
         <v>599</v>
       </c>
       <c r="B601" t="n">
-        <v>34.13765335083008</v>
+        <v>31.99237823486328</v>
       </c>
     </row>
     <row r="602">
@@ -5243,7 +5243,7 @@
         <v>600</v>
       </c>
       <c r="B602" t="n">
-        <v>36.49220657348633</v>
+        <v>31.57208442687988</v>
       </c>
     </row>
     <row r="603">
@@ -5251,7 +5251,7 @@
         <v>601</v>
       </c>
       <c r="B603" t="n">
-        <v>36.71817398071289</v>
+        <v>32.56353759765625</v>
       </c>
     </row>
     <row r="604">
@@ -5259,7 +5259,7 @@
         <v>602</v>
       </c>
       <c r="B604" t="n">
-        <v>36.75048828125</v>
+        <v>31.68621444702148</v>
       </c>
     </row>
     <row r="605">
@@ -5267,7 +5267,7 @@
         <v>603</v>
       </c>
       <c r="B605" t="n">
-        <v>35.7118034362793</v>
+        <v>31.83151626586914</v>
       </c>
     </row>
     <row r="606">
@@ -5275,7 +5275,7 @@
         <v>604</v>
       </c>
       <c r="B606" t="n">
-        <v>36.41787338256836</v>
+        <v>32.06422424316406</v>
       </c>
     </row>
     <row r="607">
@@ -5283,7 +5283,7 @@
         <v>605</v>
       </c>
       <c r="B607" t="n">
-        <v>35.80915069580078</v>
+        <v>31.73066329956055</v>
       </c>
     </row>
     <row r="608">
@@ -5291,7 +5291,7 @@
         <v>606</v>
       </c>
       <c r="B608" t="n">
-        <v>35.575439453125</v>
+        <v>31.66670036315918</v>
       </c>
     </row>
     <row r="609">
@@ -5299,7 +5299,7 @@
         <v>607</v>
       </c>
       <c r="B609" t="n">
-        <v>35.74288177490234</v>
+        <v>31.74759101867676</v>
       </c>
     </row>
     <row r="610">
@@ -5307,7 +5307,7 @@
         <v>608</v>
       </c>
       <c r="B610" t="n">
-        <v>35.53219604492188</v>
+        <v>31.64975738525391</v>
       </c>
     </row>
     <row r="611">
@@ -5315,7 +5315,7 @@
         <v>609</v>
       </c>
       <c r="B611" t="n">
-        <v>34.45734024047852</v>
+        <v>31.7750244140625</v>
       </c>
     </row>
     <row r="612">
@@ -5323,7 +5323,7 @@
         <v>610</v>
       </c>
       <c r="B612" t="n">
-        <v>34.43748092651367</v>
+        <v>31.59218788146973</v>
       </c>
     </row>
     <row r="613">
@@ -5331,7 +5331,7 @@
         <v>611</v>
       </c>
       <c r="B613" t="n">
-        <v>36.70332717895508</v>
+        <v>31.68815803527832</v>
       </c>
     </row>
     <row r="614">
@@ -5339,7 +5339,7 @@
         <v>612</v>
       </c>
       <c r="B614" t="n">
-        <v>34.40380859375</v>
+        <v>31.71042251586914</v>
       </c>
     </row>
     <row r="615">
@@ -5347,7 +5347,7 @@
         <v>613</v>
       </c>
       <c r="B615" t="n">
-        <v>33.63565444946289</v>
+        <v>31.6482048034668</v>
       </c>
     </row>
     <row r="616">
@@ -5355,7 +5355,7 @@
         <v>614</v>
       </c>
       <c r="B616" t="n">
-        <v>36.73795700073242</v>
+        <v>31.5811882019043</v>
       </c>
     </row>
     <row r="617">
@@ -5363,7 +5363,7 @@
         <v>615</v>
       </c>
       <c r="B617" t="n">
-        <v>37.32282638549805</v>
+        <v>31.71300506591797</v>
       </c>
     </row>
     <row r="618">
@@ -5371,7 +5371,7 @@
         <v>616</v>
       </c>
       <c r="B618" t="n">
-        <v>35.31140899658203</v>
+        <v>32.05814743041992</v>
       </c>
     </row>
     <row r="619">
@@ -5379,7 +5379,7 @@
         <v>617</v>
       </c>
       <c r="B619" t="n">
-        <v>36.99747085571289</v>
+        <v>31.7073860168457</v>
       </c>
     </row>
     <row r="620">
@@ -5387,7 +5387,7 @@
         <v>618</v>
       </c>
       <c r="B620" t="n">
-        <v>35.60912704467773</v>
+        <v>32.34714889526367</v>
       </c>
     </row>
     <row r="621">
@@ -5395,7 +5395,7 @@
         <v>619</v>
       </c>
       <c r="B621" t="n">
-        <v>35.98877334594727</v>
+        <v>31.95673942565918</v>
       </c>
     </row>
     <row r="622">
@@ -5403,7 +5403,7 @@
         <v>620</v>
       </c>
       <c r="B622" t="n">
-        <v>34.81285095214844</v>
+        <v>31.5966854095459</v>
       </c>
     </row>
     <row r="623">
@@ -5411,7 +5411,7 @@
         <v>621</v>
       </c>
       <c r="B623" t="n">
-        <v>35.93074798583984</v>
+        <v>32.55506896972656</v>
       </c>
     </row>
     <row r="624">
@@ -5419,7 +5419,7 @@
         <v>622</v>
       </c>
       <c r="B624" t="n">
-        <v>35.29794692993164</v>
+        <v>31.6644401550293</v>
       </c>
     </row>
     <row r="625">
@@ -5427,7 +5427,7 @@
         <v>623</v>
       </c>
       <c r="B625" t="n">
-        <v>34.98140716552734</v>
+        <v>31.70606231689453</v>
       </c>
     </row>
     <row r="626">
@@ -5435,7 +5435,7 @@
         <v>624</v>
       </c>
       <c r="B626" t="n">
-        <v>33.21059799194336</v>
+        <v>31.67120552062988</v>
       </c>
     </row>
     <row r="627">
@@ -5443,7 +5443,7 @@
         <v>625</v>
       </c>
       <c r="B627" t="n">
-        <v>35.03460311889648</v>
+        <v>31.90101623535156</v>
       </c>
     </row>
     <row r="628">
@@ -5451,7 +5451,7 @@
         <v>626</v>
       </c>
       <c r="B628" t="n">
-        <v>36.08354187011719</v>
+        <v>31.65703582763672</v>
       </c>
     </row>
     <row r="629">
@@ -5459,7 +5459,7 @@
         <v>627</v>
       </c>
       <c r="B629" t="n">
-        <v>37.72903823852539</v>
+        <v>31.62362861633301</v>
       </c>
     </row>
     <row r="630">
@@ -5467,7 +5467,7 @@
         <v>628</v>
       </c>
       <c r="B630" t="n">
-        <v>38.62628936767578</v>
+        <v>32.17969131469727</v>
       </c>
     </row>
     <row r="631">
@@ -5475,7 +5475,7 @@
         <v>629</v>
       </c>
       <c r="B631" t="n">
-        <v>34.71461486816406</v>
+        <v>32.12451553344727</v>
       </c>
     </row>
     <row r="632">
@@ -5483,7 +5483,7 @@
         <v>630</v>
       </c>
       <c r="B632" t="n">
-        <v>34.68271255493164</v>
+        <v>32.12873077392578</v>
       </c>
     </row>
     <row r="633">
@@ -5491,7 +5491,7 @@
         <v>631</v>
       </c>
       <c r="B633" t="n">
-        <v>36.08518600463867</v>
+        <v>31.64703369140625</v>
       </c>
     </row>
     <row r="634">
@@ -5499,7 +5499,7 @@
         <v>632</v>
       </c>
       <c r="B634" t="n">
-        <v>35.41097640991211</v>
+        <v>31.70698356628418</v>
       </c>
     </row>
     <row r="635">
@@ -5507,7 +5507,7 @@
         <v>633</v>
       </c>
       <c r="B635" t="n">
-        <v>35.27895355224609</v>
+        <v>31.86709976196289</v>
       </c>
     </row>
     <row r="636">
@@ -5515,7 +5515,7 @@
         <v>634</v>
       </c>
       <c r="B636" t="n">
-        <v>36.08070373535156</v>
+        <v>31.89860534667969</v>
       </c>
     </row>
     <row r="637">
@@ -5523,7 +5523,7 @@
         <v>635</v>
       </c>
       <c r="B637" t="n">
-        <v>34.59216690063477</v>
+        <v>31.58908843994141</v>
       </c>
     </row>
     <row r="638">
@@ -5531,7 +5531,7 @@
         <v>636</v>
       </c>
       <c r="B638" t="n">
-        <v>36.05271530151367</v>
+        <v>31.63955879211426</v>
       </c>
     </row>
     <row r="639">
@@ -5539,7 +5539,7 @@
         <v>637</v>
       </c>
       <c r="B639" t="n">
-        <v>34.34686660766602</v>
+        <v>31.96664047241211</v>
       </c>
     </row>
     <row r="640">
@@ -5547,7 +5547,7 @@
         <v>638</v>
       </c>
       <c r="B640" t="n">
-        <v>32.64112854003906</v>
+        <v>31.70735168457031</v>
       </c>
     </row>
     <row r="641">
@@ -5555,7 +5555,7 @@
         <v>639</v>
       </c>
       <c r="B641" t="n">
-        <v>35.66683959960938</v>
+        <v>31.88961601257324</v>
       </c>
     </row>
     <row r="642">
@@ -5563,7 +5563,7 @@
         <v>640</v>
       </c>
       <c r="B642" t="n">
-        <v>36.23537063598633</v>
+        <v>32.08642578125</v>
       </c>
     </row>
     <row r="643">
@@ -5571,7 +5571,7 @@
         <v>641</v>
       </c>
       <c r="B643" t="n">
-        <v>37.7263298034668</v>
+        <v>31.60599899291992</v>
       </c>
     </row>
     <row r="644">
@@ -5579,7 +5579,7 @@
         <v>642</v>
       </c>
       <c r="B644" t="n">
-        <v>35.55935287475586</v>
+        <v>31.6223030090332</v>
       </c>
     </row>
     <row r="645">
@@ -5587,7 +5587,7 @@
         <v>643</v>
       </c>
       <c r="B645" t="n">
-        <v>36.06367874145508</v>
+        <v>31.66371726989746</v>
       </c>
     </row>
     <row r="646">
@@ -5595,7 +5595,7 @@
         <v>644</v>
       </c>
       <c r="B646" t="n">
-        <v>35.007568359375</v>
+        <v>31.8291015625</v>
       </c>
     </row>
     <row r="647">
@@ -5603,7 +5603,7 @@
         <v>645</v>
       </c>
       <c r="B647" t="n">
-        <v>35.06674957275391</v>
+        <v>31.57291412353516</v>
       </c>
     </row>
     <row r="648">
@@ -5611,7 +5611,7 @@
         <v>646</v>
       </c>
       <c r="B648" t="n">
-        <v>34.75705337524414</v>
+        <v>31.60698318481445</v>
       </c>
     </row>
     <row r="649">
@@ -5619,7 +5619,7 @@
         <v>647</v>
       </c>
       <c r="B649" t="n">
-        <v>35.36235427856445</v>
+        <v>31.78158760070801</v>
       </c>
     </row>
     <row r="650">
@@ -5627,7 +5627,7 @@
         <v>648</v>
       </c>
       <c r="B650" t="n">
-        <v>35.47182846069336</v>
+        <v>31.75653839111328</v>
       </c>
     </row>
     <row r="651">
@@ -5635,7 +5635,7 @@
         <v>649</v>
       </c>
       <c r="B651" t="n">
-        <v>33.32197189331055</v>
+        <v>31.56709289550781</v>
       </c>
     </row>
     <row r="652">
@@ -5643,7 +5643,7 @@
         <v>650</v>
       </c>
       <c r="B652" t="n">
-        <v>37.14990615844727</v>
+        <v>31.72653388977051</v>
       </c>
     </row>
     <row r="653">
@@ -5651,7 +5651,7 @@
         <v>651</v>
       </c>
       <c r="B653" t="n">
-        <v>32.91550445556641</v>
+        <v>31.71293830871582</v>
       </c>
     </row>
     <row r="654">
@@ -5659,7 +5659,7 @@
         <v>652</v>
       </c>
       <c r="B654" t="n">
-        <v>36.09287643432617</v>
+        <v>31.68596267700195</v>
       </c>
     </row>
     <row r="655">
@@ -5667,7 +5667,7 @@
         <v>653</v>
       </c>
       <c r="B655" t="n">
-        <v>35.95407485961914</v>
+        <v>31.65158271789551</v>
       </c>
     </row>
     <row r="656">
@@ -5675,7 +5675,7 @@
         <v>654</v>
       </c>
       <c r="B656" t="n">
-        <v>34.59824752807617</v>
+        <v>31.7542667388916</v>
       </c>
     </row>
     <row r="657">
@@ -5683,7 +5683,7 @@
         <v>655</v>
       </c>
       <c r="B657" t="n">
-        <v>35.26372146606445</v>
+        <v>31.74913597106934</v>
       </c>
     </row>
     <row r="658">
@@ -5691,7 +5691,7 @@
         <v>656</v>
       </c>
       <c r="B658" t="n">
-        <v>36.64946365356445</v>
+        <v>31.59743118286133</v>
       </c>
     </row>
     <row r="659">
@@ -5699,7 +5699,7 @@
         <v>657</v>
       </c>
       <c r="B659" t="n">
-        <v>32.30252456665039</v>
+        <v>31.72694969177246</v>
       </c>
     </row>
     <row r="660">
@@ -5707,7 +5707,7 @@
         <v>658</v>
       </c>
       <c r="B660" t="n">
-        <v>35.25714874267578</v>
+        <v>31.68439292907715</v>
       </c>
     </row>
     <row r="661">
@@ -5715,7 +5715,7 @@
         <v>659</v>
       </c>
       <c r="B661" t="n">
-        <v>35.54301834106445</v>
+        <v>31.57226943969727</v>
       </c>
     </row>
     <row r="662">
@@ -5723,7 +5723,7 @@
         <v>660</v>
       </c>
       <c r="B662" t="n">
-        <v>35.77065658569336</v>
+        <v>32.05898284912109</v>
       </c>
     </row>
     <row r="663">
@@ -5731,7 +5731,7 @@
         <v>661</v>
       </c>
       <c r="B663" t="n">
-        <v>36.2384147644043</v>
+        <v>31.576171875</v>
       </c>
     </row>
     <row r="664">
@@ -5739,7 +5739,7 @@
         <v>662</v>
       </c>
       <c r="B664" t="n">
-        <v>35.14456558227539</v>
+        <v>31.76749038696289</v>
       </c>
     </row>
     <row r="665">
@@ -5747,7 +5747,7 @@
         <v>663</v>
       </c>
       <c r="B665" t="n">
-        <v>35.49943923950195</v>
+        <v>32.3648681640625</v>
       </c>
     </row>
     <row r="666">
@@ -5755,7 +5755,7 @@
         <v>664</v>
       </c>
       <c r="B666" t="n">
-        <v>34.85663223266602</v>
+        <v>31.59614944458008</v>
       </c>
     </row>
     <row r="667">
@@ -5763,7 +5763,7 @@
         <v>665</v>
       </c>
       <c r="B667" t="n">
-        <v>36.56595230102539</v>
+        <v>31.58166885375977</v>
       </c>
     </row>
     <row r="668">
@@ -5771,7 +5771,7 @@
         <v>666</v>
       </c>
       <c r="B668" t="n">
-        <v>34.78099060058594</v>
+        <v>31.59696197509766</v>
       </c>
     </row>
     <row r="669">
@@ -5779,7 +5779,7 @@
         <v>667</v>
       </c>
       <c r="B669" t="n">
-        <v>34.35637664794922</v>
+        <v>32.07515335083008</v>
       </c>
     </row>
     <row r="670">
@@ -5787,7 +5787,7 @@
         <v>668</v>
       </c>
       <c r="B670" t="n">
-        <v>36.18721389770508</v>
+        <v>31.72021675109863</v>
       </c>
     </row>
     <row r="671">
@@ -5795,7 +5795,7 @@
         <v>669</v>
       </c>
       <c r="B671" t="n">
-        <v>35.85266494750977</v>
+        <v>31.63826370239258</v>
       </c>
     </row>
     <row r="672">
@@ -5803,7 +5803,7 @@
         <v>670</v>
       </c>
       <c r="B672" t="n">
-        <v>34.54995727539062</v>
+        <v>31.84247970581055</v>
       </c>
     </row>
     <row r="673">
@@ -5811,7 +5811,7 @@
         <v>671</v>
       </c>
       <c r="B673" t="n">
-        <v>34.99141311645508</v>
+        <v>31.79531669616699</v>
       </c>
     </row>
     <row r="674">
@@ -5819,7 +5819,7 @@
         <v>672</v>
       </c>
       <c r="B674" t="n">
-        <v>34.36457061767578</v>
+        <v>31.76033973693848</v>
       </c>
     </row>
     <row r="675">
@@ -5827,7 +5827,7 @@
         <v>673</v>
       </c>
       <c r="B675" t="n">
-        <v>36.2827262878418</v>
+        <v>32.10380172729492</v>
       </c>
     </row>
     <row r="676">
@@ -5835,7 +5835,7 @@
         <v>674</v>
       </c>
       <c r="B676" t="n">
-        <v>34.83303070068359</v>
+        <v>31.74935150146484</v>
       </c>
     </row>
     <row r="677">
@@ -5843,7 +5843,7 @@
         <v>675</v>
       </c>
       <c r="B677" t="n">
-        <v>34.16546249389648</v>
+        <v>31.73589324951172</v>
       </c>
     </row>
     <row r="678">
@@ -5851,7 +5851,7 @@
         <v>676</v>
       </c>
       <c r="B678" t="n">
-        <v>35.07680511474609</v>
+        <v>31.59530258178711</v>
       </c>
     </row>
     <row r="679">
@@ -5859,7 +5859,7 @@
         <v>677</v>
       </c>
       <c r="B679" t="n">
-        <v>34.69009017944336</v>
+        <v>31.60647583007812</v>
       </c>
     </row>
     <row r="680">
@@ -5867,7 +5867,7 @@
         <v>678</v>
       </c>
       <c r="B680" t="n">
-        <v>35.87193298339844</v>
+        <v>31.76937103271484</v>
       </c>
     </row>
     <row r="681">
@@ -5875,7 +5875,7 @@
         <v>679</v>
       </c>
       <c r="B681" t="n">
-        <v>34.67441177368164</v>
+        <v>31.86641311645508</v>
       </c>
     </row>
     <row r="682">
@@ -5883,7 +5883,7 @@
         <v>680</v>
       </c>
       <c r="B682" t="n">
-        <v>33.49773788452148</v>
+        <v>31.63413429260254</v>
       </c>
     </row>
     <row r="683">
@@ -5891,7 +5891,7 @@
         <v>681</v>
       </c>
       <c r="B683" t="n">
-        <v>35.90547943115234</v>
+        <v>31.68653106689453</v>
       </c>
     </row>
     <row r="684">
@@ -5899,7 +5899,7 @@
         <v>682</v>
       </c>
       <c r="B684" t="n">
-        <v>35.13635635375977</v>
+        <v>31.76898384094238</v>
       </c>
     </row>
     <row r="685">
@@ -5907,7 +5907,7 @@
         <v>683</v>
       </c>
       <c r="B685" t="n">
-        <v>35.22658920288086</v>
+        <v>32.00313568115234</v>
       </c>
     </row>
     <row r="686">
@@ -5915,7 +5915,7 @@
         <v>684</v>
       </c>
       <c r="B686" t="n">
-        <v>34.87003326416016</v>
+        <v>31.64789962768555</v>
       </c>
     </row>
     <row r="687">
@@ -5923,7 +5923,7 @@
         <v>685</v>
       </c>
       <c r="B687" t="n">
-        <v>31.94120407104492</v>
+        <v>31.762451171875</v>
       </c>
     </row>
     <row r="688">
@@ -5931,7 +5931,7 @@
         <v>686</v>
       </c>
       <c r="B688" t="n">
-        <v>35.35968780517578</v>
+        <v>31.6718635559082</v>
       </c>
     </row>
     <row r="689">
@@ -5939,7 +5939,7 @@
         <v>687</v>
       </c>
       <c r="B689" t="n">
-        <v>35.07437896728516</v>
+        <v>31.99504852294922</v>
       </c>
     </row>
     <row r="690">
@@ -5947,7 +5947,7 @@
         <v>688</v>
       </c>
       <c r="B690" t="n">
-        <v>33.70050430297852</v>
+        <v>32.40158462524414</v>
       </c>
     </row>
     <row r="691">
@@ -5955,7 +5955,7 @@
         <v>689</v>
       </c>
       <c r="B691" t="n">
-        <v>36.67851638793945</v>
+        <v>31.62421417236328</v>
       </c>
     </row>
     <row r="692">
@@ -5963,7 +5963,7 @@
         <v>690</v>
       </c>
       <c r="B692" t="n">
-        <v>34.5345458984375</v>
+        <v>31.73347663879395</v>
       </c>
     </row>
     <row r="693">
@@ -5971,7 +5971,7 @@
         <v>691</v>
       </c>
       <c r="B693" t="n">
-        <v>34.67366409301758</v>
+        <v>31.58847618103027</v>
       </c>
     </row>
     <row r="694">
@@ -5979,7 +5979,7 @@
         <v>692</v>
       </c>
       <c r="B694" t="n">
-        <v>34.88534545898438</v>
+        <v>31.63004302978516</v>
       </c>
     </row>
     <row r="695">
@@ -5987,7 +5987,7 @@
         <v>693</v>
       </c>
       <c r="B695" t="n">
-        <v>34.37526321411133</v>
+        <v>31.64958190917969</v>
       </c>
     </row>
     <row r="696">
@@ -5995,7 +5995,7 @@
         <v>694</v>
       </c>
       <c r="B696" t="n">
-        <v>35.11959838867188</v>
+        <v>32.24084091186523</v>
       </c>
     </row>
     <row r="697">
@@ -6003,7 +6003,7 @@
         <v>695</v>
       </c>
       <c r="B697" t="n">
-        <v>34.69841384887695</v>
+        <v>32.10141754150391</v>
       </c>
     </row>
     <row r="698">
@@ -6011,7 +6011,7 @@
         <v>696</v>
       </c>
       <c r="B698" t="n">
-        <v>36.25300979614258</v>
+        <v>32.01840972900391</v>
       </c>
     </row>
     <row r="699">
@@ -6019,7 +6019,7 @@
         <v>697</v>
       </c>
       <c r="B699" t="n">
-        <v>33.43136978149414</v>
+        <v>31.75901412963867</v>
       </c>
     </row>
     <row r="700">
@@ -6027,7 +6027,7 @@
         <v>698</v>
       </c>
       <c r="B700" t="n">
-        <v>34.06151962280273</v>
+        <v>31.94403839111328</v>
       </c>
     </row>
     <row r="701">
@@ -6035,7 +6035,7 @@
         <v>699</v>
       </c>
       <c r="B701" t="n">
-        <v>34.86431121826172</v>
+        <v>31.86739921569824</v>
       </c>
     </row>
     <row r="702">
@@ -6043,7 +6043,7 @@
         <v>700</v>
       </c>
       <c r="B702" t="n">
-        <v>33.14159393310547</v>
+        <v>31.79696083068848</v>
       </c>
     </row>
     <row r="703">
@@ -6051,7 +6051,7 @@
         <v>701</v>
       </c>
       <c r="B703" t="n">
-        <v>34.87566375732422</v>
+        <v>31.67464065551758</v>
       </c>
     </row>
     <row r="704">
@@ -6059,7 +6059,7 @@
         <v>702</v>
       </c>
       <c r="B704" t="n">
-        <v>34.97204208374023</v>
+        <v>31.64437866210938</v>
       </c>
     </row>
     <row r="705">
@@ -6067,7 +6067,7 @@
         <v>703</v>
       </c>
       <c r="B705" t="n">
-        <v>36.22824096679688</v>
+        <v>31.62519836425781</v>
       </c>
     </row>
     <row r="706">
@@ -6075,7 +6075,7 @@
         <v>704</v>
       </c>
       <c r="B706" t="n">
-        <v>34.93266677856445</v>
+        <v>31.7199535369873</v>
       </c>
     </row>
     <row r="707">
@@ -6083,7 +6083,7 @@
         <v>705</v>
       </c>
       <c r="B707" t="n">
-        <v>35.13626480102539</v>
+        <v>31.77345275878906</v>
       </c>
     </row>
     <row r="708">
@@ -6091,7 +6091,7 @@
         <v>706</v>
       </c>
       <c r="B708" t="n">
-        <v>35.01286315917969</v>
+        <v>31.65896606445312</v>
       </c>
     </row>
     <row r="709">
@@ -6099,7 +6099,7 @@
         <v>707</v>
       </c>
       <c r="B709" t="n">
-        <v>34.20487213134766</v>
+        <v>32.13178634643555</v>
       </c>
     </row>
     <row r="710">
@@ -6107,7 +6107,7 @@
         <v>708</v>
       </c>
       <c r="B710" t="n">
-        <v>36.07438659667969</v>
+        <v>32.37935638427734</v>
       </c>
     </row>
     <row r="711">
@@ -6115,7 +6115,7 @@
         <v>709</v>
       </c>
       <c r="B711" t="n">
-        <v>33.50062561035156</v>
+        <v>31.73667526245117</v>
       </c>
     </row>
     <row r="712">
@@ -6123,7 +6123,7 @@
         <v>710</v>
       </c>
       <c r="B712" t="n">
-        <v>35.95785140991211</v>
+        <v>32.26958465576172</v>
       </c>
     </row>
     <row r="713">
@@ -6131,7 +6131,7 @@
         <v>711</v>
       </c>
       <c r="B713" t="n">
-        <v>35.45980834960938</v>
+        <v>31.63334274291992</v>
       </c>
     </row>
     <row r="714">
@@ -6139,7 +6139,7 @@
         <v>712</v>
       </c>
       <c r="B714" t="n">
-        <v>36.07826232910156</v>
+        <v>31.73159980773926</v>
       </c>
     </row>
     <row r="715">
@@ -6147,7 +6147,7 @@
         <v>713</v>
       </c>
       <c r="B715" t="n">
-        <v>33.31346130371094</v>
+        <v>31.57145500183105</v>
       </c>
     </row>
     <row r="716">
@@ -6155,7 +6155,7 @@
         <v>714</v>
       </c>
       <c r="B716" t="n">
-        <v>32.28106689453125</v>
+        <v>31.58001327514648</v>
       </c>
     </row>
     <row r="717">
@@ -6163,7 +6163,7 @@
         <v>715</v>
       </c>
       <c r="B717" t="n">
-        <v>31.7651309967041</v>
+        <v>32.22021865844727</v>
       </c>
     </row>
     <row r="718">
@@ -6171,7 +6171,7 @@
         <v>716</v>
       </c>
       <c r="B718" t="n">
-        <v>33.98064804077148</v>
+        <v>32.76945495605469</v>
       </c>
     </row>
     <row r="719">
@@ -6179,7 +6179,7 @@
         <v>717</v>
       </c>
       <c r="B719" t="n">
-        <v>34.22719192504883</v>
+        <v>31.88045310974121</v>
       </c>
     </row>
     <row r="720">
@@ -6187,7 +6187,7 @@
         <v>718</v>
       </c>
       <c r="B720" t="n">
-        <v>33.74971008300781</v>
+        <v>32.0772705078125</v>
       </c>
     </row>
     <row r="721">
@@ -6195,7 +6195,7 @@
         <v>719</v>
       </c>
       <c r="B721" t="n">
-        <v>33.83205795288086</v>
+        <v>31.6224479675293</v>
       </c>
     </row>
     <row r="722">
@@ -6203,7 +6203,7 @@
         <v>720</v>
       </c>
       <c r="B722" t="n">
-        <v>34.78340911865234</v>
+        <v>31.95354080200195</v>
       </c>
     </row>
     <row r="723">
@@ -6211,7 +6211,7 @@
         <v>721</v>
       </c>
       <c r="B723" t="n">
-        <v>36.18302154541016</v>
+        <v>31.71096801757812</v>
       </c>
     </row>
     <row r="724">
@@ -6219,7 +6219,7 @@
         <v>722</v>
       </c>
       <c r="B724" t="n">
-        <v>35.33461380004883</v>
+        <v>32.55339050292969</v>
       </c>
     </row>
     <row r="725">
@@ -6227,7 +6227,7 @@
         <v>723</v>
       </c>
       <c r="B725" t="n">
-        <v>35.52376174926758</v>
+        <v>31.74971389770508</v>
       </c>
     </row>
     <row r="726">
@@ -6235,7 +6235,7 @@
         <v>724</v>
       </c>
       <c r="B726" t="n">
-        <v>34.581298828125</v>
+        <v>31.95773696899414</v>
       </c>
     </row>
     <row r="727">
@@ -6243,7 +6243,7 @@
         <v>725</v>
       </c>
       <c r="B727" t="n">
-        <v>34.40533065795898</v>
+        <v>31.81219863891602</v>
       </c>
     </row>
     <row r="728">
@@ -6251,7 +6251,7 @@
         <v>726</v>
       </c>
       <c r="B728" t="n">
-        <v>31.58238983154297</v>
+        <v>31.86690902709961</v>
       </c>
     </row>
     <row r="729">
@@ -6259,7 +6259,7 @@
         <v>727</v>
       </c>
       <c r="B729" t="n">
-        <v>35.91033172607422</v>
+        <v>31.78841781616211</v>
       </c>
     </row>
     <row r="730">
@@ -6267,7 +6267,7 @@
         <v>728</v>
       </c>
       <c r="B730" t="n">
-        <v>35.0844841003418</v>
+        <v>31.66117858886719</v>
       </c>
     </row>
     <row r="731">
@@ -6275,7 +6275,7 @@
         <v>729</v>
       </c>
       <c r="B731" t="n">
-        <v>35.57424545288086</v>
+        <v>31.74770927429199</v>
       </c>
     </row>
     <row r="732">
@@ -6283,7 +6283,7 @@
         <v>730</v>
       </c>
       <c r="B732" t="n">
-        <v>34.69107437133789</v>
+        <v>31.69756126403809</v>
       </c>
     </row>
     <row r="733">
@@ -6291,7 +6291,7 @@
         <v>731</v>
       </c>
       <c r="B733" t="n">
-        <v>34.89770126342773</v>
+        <v>31.80964660644531</v>
       </c>
     </row>
     <row r="734">
@@ -6299,7 +6299,7 @@
         <v>732</v>
       </c>
       <c r="B734" t="n">
-        <v>35.56430053710938</v>
+        <v>31.58209609985352</v>
       </c>
     </row>
     <row r="735">
@@ -6307,7 +6307,7 @@
         <v>733</v>
       </c>
       <c r="B735" t="n">
-        <v>35.0164680480957</v>
+        <v>31.61386108398438</v>
       </c>
     </row>
     <row r="736">
@@ -6315,7 +6315,7 @@
         <v>734</v>
       </c>
       <c r="B736" t="n">
-        <v>35.8886833190918</v>
+        <v>31.60568237304688</v>
       </c>
     </row>
     <row r="737">
@@ -6323,7 +6323,7 @@
         <v>735</v>
       </c>
       <c r="B737" t="n">
-        <v>35.01298904418945</v>
+        <v>32.28143310546875</v>
       </c>
     </row>
     <row r="738">
@@ -6331,7 +6331,7 @@
         <v>736</v>
       </c>
       <c r="B738" t="n">
-        <v>35.27815246582031</v>
+        <v>32.52500152587891</v>
       </c>
     </row>
     <row r="739">
@@ -6339,7 +6339,7 @@
         <v>737</v>
       </c>
       <c r="B739" t="n">
-        <v>34.17719650268555</v>
+        <v>32.14861297607422</v>
       </c>
     </row>
     <row r="740">
@@ -6347,7 +6347,7 @@
         <v>738</v>
       </c>
       <c r="B740" t="n">
-        <v>34.32865524291992</v>
+        <v>31.59909820556641</v>
       </c>
     </row>
     <row r="741">
@@ -6355,7 +6355,7 @@
         <v>739</v>
       </c>
       <c r="B741" t="n">
-        <v>33.32106018066406</v>
+        <v>32.64247894287109</v>
       </c>
     </row>
     <row r="742">
@@ -6363,7 +6363,7 @@
         <v>740</v>
       </c>
       <c r="B742" t="n">
-        <v>34.25077819824219</v>
+        <v>32.1520881652832</v>
       </c>
     </row>
     <row r="743">
@@ -6371,7 +6371,7 @@
         <v>741</v>
       </c>
       <c r="B743" t="n">
-        <v>34.00558853149414</v>
+        <v>31.85808372497559</v>
       </c>
     </row>
     <row r="744">
@@ -6379,7 +6379,7 @@
         <v>742</v>
       </c>
       <c r="B744" t="n">
-        <v>32.84600067138672</v>
+        <v>31.89004707336426</v>
       </c>
     </row>
     <row r="745">
@@ -6387,7 +6387,7 @@
         <v>743</v>
       </c>
       <c r="B745" t="n">
-        <v>32.35432052612305</v>
+        <v>31.64680099487305</v>
       </c>
     </row>
     <row r="746">
@@ -6395,7 +6395,7 @@
         <v>744</v>
       </c>
       <c r="B746" t="n">
-        <v>35.24445724487305</v>
+        <v>32.09358215332031</v>
       </c>
     </row>
     <row r="747">
@@ -6403,7 +6403,7 @@
         <v>745</v>
       </c>
       <c r="B747" t="n">
-        <v>31.86219215393066</v>
+        <v>31.88335418701172</v>
       </c>
     </row>
     <row r="748">
@@ -6411,7 +6411,7 @@
         <v>746</v>
       </c>
       <c r="B748" t="n">
-        <v>34.75364303588867</v>
+        <v>31.58955574035645</v>
       </c>
     </row>
     <row r="749">
@@ -6419,7 +6419,7 @@
         <v>747</v>
       </c>
       <c r="B749" t="n">
-        <v>36.01047897338867</v>
+        <v>31.65398788452148</v>
       </c>
     </row>
     <row r="750">
@@ -6427,7 +6427,7 @@
         <v>748</v>
       </c>
       <c r="B750" t="n">
-        <v>34.20244979858398</v>
+        <v>31.63095664978027</v>
       </c>
     </row>
     <row r="751">
@@ -6435,7 +6435,7 @@
         <v>749</v>
       </c>
       <c r="B751" t="n">
-        <v>34.73249435424805</v>
+        <v>31.57215690612793</v>
       </c>
     </row>
     <row r="752">
@@ -6443,7 +6443,7 @@
         <v>750</v>
       </c>
       <c r="B752" t="n">
-        <v>32.03505706787109</v>
+        <v>31.73820114135742</v>
       </c>
     </row>
     <row r="753">
@@ -6451,7 +6451,7 @@
         <v>751</v>
       </c>
       <c r="B753" t="n">
-        <v>34.3975830078125</v>
+        <v>31.81377410888672</v>
       </c>
     </row>
     <row r="754">
@@ -6459,7 +6459,7 @@
         <v>752</v>
       </c>
       <c r="B754" t="n">
-        <v>34.21562576293945</v>
+        <v>31.58825492858887</v>
       </c>
     </row>
     <row r="755">
@@ -6467,7 +6467,7 @@
         <v>753</v>
       </c>
       <c r="B755" t="n">
-        <v>35.89548873901367</v>
+        <v>31.74808883666992</v>
       </c>
     </row>
     <row r="756">
@@ -6475,7 +6475,7 @@
         <v>754</v>
       </c>
       <c r="B756" t="n">
-        <v>34.36759948730469</v>
+        <v>31.95550155639648</v>
       </c>
     </row>
     <row r="757">
@@ -6483,7 +6483,7 @@
         <v>755</v>
       </c>
       <c r="B757" t="n">
-        <v>35.5266227722168</v>
+        <v>32.68270492553711</v>
       </c>
     </row>
     <row r="758">
@@ -6491,7 +6491,7 @@
         <v>756</v>
       </c>
       <c r="B758" t="n">
-        <v>34.32553482055664</v>
+        <v>31.6878604888916</v>
       </c>
     </row>
     <row r="759">
@@ -6499,7 +6499,7 @@
         <v>757</v>
       </c>
       <c r="B759" t="n">
-        <v>35.08545303344727</v>
+        <v>31.75086402893066</v>
       </c>
     </row>
     <row r="760">
@@ -6507,7 +6507,7 @@
         <v>758</v>
       </c>
       <c r="B760" t="n">
-        <v>32.46450424194336</v>
+        <v>31.88788604736328</v>
       </c>
     </row>
     <row r="761">
@@ -6515,7 +6515,7 @@
         <v>759</v>
       </c>
       <c r="B761" t="n">
-        <v>34.08578109741211</v>
+        <v>31.75169372558594</v>
       </c>
     </row>
     <row r="762">
@@ -6523,7 +6523,7 @@
         <v>760</v>
       </c>
       <c r="B762" t="n">
-        <v>29.93228530883789</v>
+        <v>31.65790176391602</v>
       </c>
     </row>
     <row r="763">
@@ -6531,7 +6531,7 @@
         <v>761</v>
       </c>
       <c r="B763" t="n">
-        <v>32.21450424194336</v>
+        <v>31.85513687133789</v>
       </c>
     </row>
     <row r="764">
@@ -6539,7 +6539,7 @@
         <v>762</v>
       </c>
       <c r="B764" t="n">
-        <v>34.2470817565918</v>
+        <v>32.08694458007812</v>
       </c>
     </row>
     <row r="765">
@@ -6547,7 +6547,7 @@
         <v>763</v>
       </c>
       <c r="B765" t="n">
-        <v>35.70247650146484</v>
+        <v>31.89725875854492</v>
       </c>
     </row>
     <row r="766">
@@ -6555,7 +6555,7 @@
         <v>764</v>
       </c>
       <c r="B766" t="n">
-        <v>32.90999221801758</v>
+        <v>32.17708969116211</v>
       </c>
     </row>
     <row r="767">
@@ -6563,7 +6563,7 @@
         <v>765</v>
       </c>
       <c r="B767" t="n">
-        <v>34.55097579956055</v>
+        <v>31.6530876159668</v>
       </c>
     </row>
     <row r="768">
@@ -6571,7 +6571,7 @@
         <v>766</v>
       </c>
       <c r="B768" t="n">
-        <v>33.7113151550293</v>
+        <v>31.88735961914062</v>
       </c>
     </row>
     <row r="769">
@@ -6579,7 +6579,7 @@
         <v>767</v>
       </c>
       <c r="B769" t="n">
-        <v>34.29230117797852</v>
+        <v>31.6661376953125</v>
       </c>
     </row>
     <row r="770">
@@ -6587,7 +6587,7 @@
         <v>768</v>
       </c>
       <c r="B770" t="n">
-        <v>33.5154914855957</v>
+        <v>32.68964004516602</v>
       </c>
     </row>
     <row r="771">
@@ -6595,7 +6595,7 @@
         <v>769</v>
       </c>
       <c r="B771" t="n">
-        <v>36.05624389648438</v>
+        <v>31.694091796875</v>
       </c>
     </row>
     <row r="772">
@@ -6603,7 +6603,7 @@
         <v>770</v>
       </c>
       <c r="B772" t="n">
-        <v>33.78975677490234</v>
+        <v>31.72319412231445</v>
       </c>
     </row>
     <row r="773">
@@ -6611,7 +6611,7 @@
         <v>771</v>
       </c>
       <c r="B773" t="n">
-        <v>32.03398132324219</v>
+        <v>31.77444839477539</v>
       </c>
     </row>
     <row r="774">
@@ -6619,7 +6619,7 @@
         <v>772</v>
       </c>
       <c r="B774" t="n">
-        <v>34.18620681762695</v>
+        <v>31.66706848144531</v>
       </c>
     </row>
     <row r="775">
@@ -6627,7 +6627,7 @@
         <v>773</v>
       </c>
       <c r="B775" t="n">
-        <v>34.4607048034668</v>
+        <v>31.88334274291992</v>
       </c>
     </row>
     <row r="776">
@@ -6635,7 +6635,7 @@
         <v>774</v>
       </c>
       <c r="B776" t="n">
-        <v>35.21811294555664</v>
+        <v>31.62208938598633</v>
       </c>
     </row>
     <row r="777">
@@ -6643,7 +6643,7 @@
         <v>775</v>
       </c>
       <c r="B777" t="n">
-        <v>36.38532257080078</v>
+        <v>31.75667572021484</v>
       </c>
     </row>
     <row r="778">
@@ -6651,7 +6651,7 @@
         <v>776</v>
       </c>
       <c r="B778" t="n">
-        <v>33.92073822021484</v>
+        <v>31.95172882080078</v>
       </c>
     </row>
     <row r="779">
@@ -6659,7 +6659,7 @@
         <v>777</v>
       </c>
       <c r="B779" t="n">
-        <v>34.42985534667969</v>
+        <v>31.72882270812988</v>
       </c>
     </row>
     <row r="780">
@@ -6667,7 +6667,7 @@
         <v>778</v>
       </c>
       <c r="B780" t="n">
-        <v>35.50398635864258</v>
+        <v>31.77804183959961</v>
       </c>
     </row>
     <row r="781">
@@ -6675,7 +6675,7 @@
         <v>779</v>
       </c>
       <c r="B781" t="n">
-        <v>33.00204849243164</v>
+        <v>31.81959915161133</v>
       </c>
     </row>
     <row r="782">
@@ -6683,7 +6683,7 @@
         <v>780</v>
       </c>
       <c r="B782" t="n">
-        <v>33.63067245483398</v>
+        <v>32.12397766113281</v>
       </c>
     </row>
     <row r="783">
@@ -6691,7 +6691,7 @@
         <v>781</v>
       </c>
       <c r="B783" t="n">
-        <v>32.38568115234375</v>
+        <v>31.72446250915527</v>
       </c>
     </row>
     <row r="784">
@@ -6699,7 +6699,7 @@
         <v>782</v>
       </c>
       <c r="B784" t="n">
-        <v>33.44538116455078</v>
+        <v>31.59535217285156</v>
       </c>
     </row>
     <row r="785">
@@ -6707,7 +6707,7 @@
         <v>783</v>
       </c>
       <c r="B785" t="n">
-        <v>34.11714935302734</v>
+        <v>31.71832656860352</v>
       </c>
     </row>
     <row r="786">
@@ -6715,7 +6715,7 @@
         <v>784</v>
       </c>
       <c r="B786" t="n">
-        <v>31.72978210449219</v>
+        <v>31.67805480957031</v>
       </c>
     </row>
     <row r="787">
@@ -6723,7 +6723,7 @@
         <v>785</v>
       </c>
       <c r="B787" t="n">
-        <v>34.64905166625977</v>
+        <v>31.75160980224609</v>
       </c>
     </row>
     <row r="788">
@@ -6731,7 +6731,7 @@
         <v>786</v>
       </c>
       <c r="B788" t="n">
-        <v>35.63219833374023</v>
+        <v>31.71910858154297</v>
       </c>
     </row>
     <row r="789">
@@ -6739,7 +6739,7 @@
         <v>787</v>
       </c>
       <c r="B789" t="n">
-        <v>34.4663200378418</v>
+        <v>32.40848541259766</v>
       </c>
     </row>
     <row r="790">
@@ -6747,7 +6747,7 @@
         <v>788</v>
       </c>
       <c r="B790" t="n">
-        <v>34.32242202758789</v>
+        <v>31.7182502746582</v>
       </c>
     </row>
     <row r="791">
@@ -6755,7 +6755,7 @@
         <v>789</v>
       </c>
       <c r="B791" t="n">
-        <v>31.98666954040527</v>
+        <v>31.65993499755859</v>
       </c>
     </row>
     <row r="792">
@@ -6763,7 +6763,7 @@
         <v>790</v>
       </c>
       <c r="B792" t="n">
-        <v>34.36683654785156</v>
+        <v>33.46630477905273</v>
       </c>
     </row>
     <row r="793">
@@ -6771,7 +6771,7 @@
         <v>791</v>
       </c>
       <c r="B793" t="n">
-        <v>32.25447845458984</v>
+        <v>31.98447036743164</v>
       </c>
     </row>
     <row r="794">
@@ -6779,7 +6779,7 @@
         <v>792</v>
       </c>
       <c r="B794" t="n">
-        <v>32.00759887695312</v>
+        <v>31.61980056762695</v>
       </c>
     </row>
     <row r="795">
@@ -6787,7 +6787,7 @@
         <v>793</v>
       </c>
       <c r="B795" t="n">
-        <v>35.21657180786133</v>
+        <v>32.41300964355469</v>
       </c>
     </row>
     <row r="796">
@@ -6795,7 +6795,7 @@
         <v>794</v>
       </c>
       <c r="B796" t="n">
-        <v>34.68882369995117</v>
+        <v>31.67804145812988</v>
       </c>
     </row>
     <row r="797">
@@ -6803,7 +6803,7 @@
         <v>795</v>
       </c>
       <c r="B797" t="n">
-        <v>32.63750076293945</v>
+        <v>32.29989624023438</v>
       </c>
     </row>
     <row r="798">
@@ -6811,7 +6811,7 @@
         <v>796</v>
       </c>
       <c r="B798" t="n">
-        <v>34.97077941894531</v>
+        <v>31.74179458618164</v>
       </c>
     </row>
     <row r="799">
@@ -6819,7 +6819,7 @@
         <v>797</v>
       </c>
       <c r="B799" t="n">
-        <v>32.88066482543945</v>
+        <v>32.06414794921875</v>
       </c>
     </row>
     <row r="800">
@@ -6827,7 +6827,7 @@
         <v>798</v>
       </c>
       <c r="B800" t="n">
-        <v>33.54501724243164</v>
+        <v>31.64083099365234</v>
       </c>
     </row>
     <row r="801">
@@ -6835,7 +6835,7 @@
         <v>799</v>
       </c>
       <c r="B801" t="n">
-        <v>34.77616500854492</v>
+        <v>32.04343414306641</v>
       </c>
     </row>
     <row r="802">
@@ -6843,7 +6843,7 @@
         <v>800</v>
       </c>
       <c r="B802" t="n">
-        <v>32.68506240844727</v>
+        <v>31.59711456298828</v>
       </c>
     </row>
     <row r="803">
@@ -6851,7 +6851,7 @@
         <v>801</v>
       </c>
       <c r="B803" t="n">
-        <v>32.48803329467773</v>
+        <v>31.88192749023438</v>
       </c>
     </row>
     <row r="804">
@@ -6859,7 +6859,7 @@
         <v>802</v>
       </c>
       <c r="B804" t="n">
-        <v>35.21886825561523</v>
+        <v>31.6535758972168</v>
       </c>
     </row>
     <row r="805">
@@ -6867,7 +6867,7 @@
         <v>803</v>
       </c>
       <c r="B805" t="n">
-        <v>34.09635162353516</v>
+        <v>31.8663215637207</v>
       </c>
     </row>
     <row r="806">
@@ -6875,7 +6875,7 @@
         <v>804</v>
       </c>
       <c r="B806" t="n">
-        <v>34.13721084594727</v>
+        <v>31.58891677856445</v>
       </c>
     </row>
     <row r="807">
@@ -6883,7 +6883,7 @@
         <v>805</v>
       </c>
       <c r="B807" t="n">
-        <v>33.53551864624023</v>
+        <v>31.57991790771484</v>
       </c>
     </row>
     <row r="808">
@@ -6891,7 +6891,7 @@
         <v>806</v>
       </c>
       <c r="B808" t="n">
-        <v>36.28444671630859</v>
+        <v>31.93798446655273</v>
       </c>
     </row>
     <row r="809">
@@ -6899,7 +6899,7 @@
         <v>807</v>
       </c>
       <c r="B809" t="n">
-        <v>36.29496383666992</v>
+        <v>31.80615997314453</v>
       </c>
     </row>
     <row r="810">
@@ -6907,7 +6907,7 @@
         <v>808</v>
       </c>
       <c r="B810" t="n">
-        <v>33.26931381225586</v>
+        <v>31.73181533813477</v>
       </c>
     </row>
     <row r="811">
@@ -6915,7 +6915,7 @@
         <v>809</v>
       </c>
       <c r="B811" t="n">
-        <v>34.34979629516602</v>
+        <v>32.69569396972656</v>
       </c>
     </row>
     <row r="812">
@@ -6923,7 +6923,7 @@
         <v>810</v>
       </c>
       <c r="B812" t="n">
-        <v>32.65933227539062</v>
+        <v>31.70925712585449</v>
       </c>
     </row>
     <row r="813">
@@ -6931,7 +6931,7 @@
         <v>811</v>
       </c>
       <c r="B813" t="n">
-        <v>32.56274795532227</v>
+        <v>31.8887996673584</v>
       </c>
     </row>
     <row r="814">
@@ -6939,7 +6939,7 @@
         <v>812</v>
       </c>
       <c r="B814" t="n">
-        <v>33.75833129882812</v>
+        <v>31.67270088195801</v>
       </c>
     </row>
     <row r="815">
@@ -6947,7 +6947,7 @@
         <v>813</v>
       </c>
       <c r="B815" t="n">
-        <v>33.50337600708008</v>
+        <v>32.11169815063477</v>
       </c>
     </row>
     <row r="816">
@@ -6955,7 +6955,7 @@
         <v>814</v>
       </c>
       <c r="B816" t="n">
-        <v>32.66025543212891</v>
+        <v>31.75160789489746</v>
       </c>
     </row>
     <row r="817">
@@ -6963,7 +6963,7 @@
         <v>815</v>
       </c>
       <c r="B817" t="n">
-        <v>34.30691909790039</v>
+        <v>31.57247924804688</v>
       </c>
     </row>
     <row r="818">
@@ -6971,7 +6971,7 @@
         <v>816</v>
       </c>
       <c r="B818" t="n">
-        <v>35.38502502441406</v>
+        <v>31.72011566162109</v>
       </c>
     </row>
     <row r="819">
@@ -6979,7 +6979,7 @@
         <v>817</v>
       </c>
       <c r="B819" t="n">
-        <v>35.06062698364258</v>
+        <v>31.60146331787109</v>
       </c>
     </row>
     <row r="820">
@@ -6987,7 +6987,7 @@
         <v>818</v>
       </c>
       <c r="B820" t="n">
-        <v>32.28401947021484</v>
+        <v>31.8773250579834</v>
       </c>
     </row>
     <row r="821">
@@ -6995,7 +6995,7 @@
         <v>819</v>
       </c>
       <c r="B821" t="n">
-        <v>34.34412384033203</v>
+        <v>31.75045013427734</v>
       </c>
     </row>
     <row r="822">
@@ -7003,7 +7003,7 @@
         <v>820</v>
       </c>
       <c r="B822" t="n">
-        <v>34.16744995117188</v>
+        <v>31.87423706054688</v>
       </c>
     </row>
     <row r="823">
@@ -7011,7 +7011,7 @@
         <v>821</v>
       </c>
       <c r="B823" t="n">
-        <v>34.44070816040039</v>
+        <v>31.95757293701172</v>
       </c>
     </row>
     <row r="824">
@@ -7019,7 +7019,7 @@
         <v>822</v>
       </c>
       <c r="B824" t="n">
-        <v>35.38214111328125</v>
+        <v>31.59448432922363</v>
       </c>
     </row>
     <row r="825">
@@ -7027,7 +7027,7 @@
         <v>823</v>
       </c>
       <c r="B825" t="n">
-        <v>34.23348236083984</v>
+        <v>31.66095161437988</v>
       </c>
     </row>
     <row r="826">
@@ -7035,7 +7035,7 @@
         <v>824</v>
       </c>
       <c r="B826" t="n">
-        <v>35.60805892944336</v>
+        <v>31.93559265136719</v>
       </c>
     </row>
     <row r="827">
@@ -7043,7 +7043,7 @@
         <v>825</v>
       </c>
       <c r="B827" t="n">
-        <v>33.53356170654297</v>
+        <v>31.5930004119873</v>
       </c>
     </row>
     <row r="828">
@@ -7051,7 +7051,7 @@
         <v>826</v>
       </c>
       <c r="B828" t="n">
-        <v>33.11308288574219</v>
+        <v>31.58961868286133</v>
       </c>
     </row>
     <row r="829">
@@ -7059,7 +7059,7 @@
         <v>827</v>
       </c>
       <c r="B829" t="n">
-        <v>32.24501800537109</v>
+        <v>31.80427932739258</v>
       </c>
     </row>
     <row r="830">
@@ -7067,7 +7067,7 @@
         <v>828</v>
       </c>
       <c r="B830" t="n">
-        <v>33.15236663818359</v>
+        <v>31.90725708007812</v>
       </c>
     </row>
     <row r="831">
@@ -7075,7 +7075,7 @@
         <v>829</v>
       </c>
       <c r="B831" t="n">
-        <v>33.2877311706543</v>
+        <v>31.56072235107422</v>
       </c>
     </row>
     <row r="832">
@@ -7083,7 +7083,7 @@
         <v>830</v>
       </c>
       <c r="B832" t="n">
-        <v>35.47965621948242</v>
+        <v>31.6407642364502</v>
       </c>
     </row>
     <row r="833">
@@ -7091,7 +7091,7 @@
         <v>831</v>
       </c>
       <c r="B833" t="n">
-        <v>32.43003082275391</v>
+        <v>31.59671783447266</v>
       </c>
     </row>
     <row r="834">
@@ -7099,7 +7099,7 @@
         <v>832</v>
       </c>
       <c r="B834" t="n">
-        <v>34.53628158569336</v>
+        <v>31.71059417724609</v>
       </c>
     </row>
     <row r="835">
@@ -7107,7 +7107,7 @@
         <v>833</v>
       </c>
       <c r="B835" t="n">
-        <v>33.50514221191406</v>
+        <v>32.37823486328125</v>
       </c>
     </row>
     <row r="836">
@@ -7115,7 +7115,7 @@
         <v>834</v>
       </c>
       <c r="B836" t="n">
-        <v>33.39926910400391</v>
+        <v>31.58110809326172</v>
       </c>
     </row>
     <row r="837">
@@ -7123,7 +7123,7 @@
         <v>835</v>
       </c>
       <c r="B837" t="n">
-        <v>32.90731811523438</v>
+        <v>32.11225509643555</v>
       </c>
     </row>
     <row r="838">
@@ -7131,7 +7131,7 @@
         <v>836</v>
       </c>
       <c r="B838" t="n">
-        <v>31.94757843017578</v>
+        <v>31.70006561279297</v>
       </c>
     </row>
     <row r="839">
@@ -7139,7 +7139,7 @@
         <v>837</v>
       </c>
       <c r="B839" t="n">
-        <v>30.97147941589355</v>
+        <v>31.72100448608398</v>
       </c>
     </row>
     <row r="840">
@@ -7147,7 +7147,7 @@
         <v>838</v>
       </c>
       <c r="B840" t="n">
-        <v>34.44444274902344</v>
+        <v>31.65813255310059</v>
       </c>
     </row>
     <row r="841">
@@ -7155,7 +7155,7 @@
         <v>839</v>
       </c>
       <c r="B841" t="n">
-        <v>32.68163299560547</v>
+        <v>31.75331115722656</v>
       </c>
     </row>
     <row r="842">
@@ -7163,7 +7163,7 @@
         <v>840</v>
       </c>
       <c r="B842" t="n">
-        <v>32.1379280090332</v>
+        <v>31.78854560852051</v>
       </c>
     </row>
     <row r="843">
@@ -7171,7 +7171,7 @@
         <v>841</v>
       </c>
       <c r="B843" t="n">
-        <v>33.8253173828125</v>
+        <v>31.71207046508789</v>
       </c>
     </row>
     <row r="844">
@@ -7179,7 +7179,7 @@
         <v>842</v>
       </c>
       <c r="B844" t="n">
-        <v>32.05461502075195</v>
+        <v>31.60640907287598</v>
       </c>
     </row>
     <row r="845">
@@ -7187,7 +7187,7 @@
         <v>843</v>
       </c>
       <c r="B845" t="n">
-        <v>32.53693389892578</v>
+        <v>31.68780899047852</v>
       </c>
     </row>
     <row r="846">
@@ -7195,7 +7195,7 @@
         <v>844</v>
       </c>
       <c r="B846" t="n">
-        <v>30.87313652038574</v>
+        <v>31.67324829101562</v>
       </c>
     </row>
     <row r="847">
@@ -7203,7 +7203,7 @@
         <v>845</v>
       </c>
       <c r="B847" t="n">
-        <v>33.75375747680664</v>
+        <v>31.80184745788574</v>
       </c>
     </row>
     <row r="848">
@@ -7211,7 +7211,7 @@
         <v>846</v>
       </c>
       <c r="B848" t="n">
-        <v>33.93953323364258</v>
+        <v>31.64296722412109</v>
       </c>
     </row>
     <row r="849">
@@ -7219,7 +7219,7 @@
         <v>847</v>
       </c>
       <c r="B849" t="n">
-        <v>32.09535598754883</v>
+        <v>32.05344390869141</v>
       </c>
     </row>
     <row r="850">
@@ -7227,7 +7227,7 @@
         <v>848</v>
       </c>
       <c r="B850" t="n">
-        <v>31.60299301147461</v>
+        <v>31.85074996948242</v>
       </c>
     </row>
     <row r="851">
@@ -7235,7 +7235,7 @@
         <v>849</v>
       </c>
       <c r="B851" t="n">
-        <v>33.4768180847168</v>
+        <v>31.58320617675781</v>
       </c>
     </row>
     <row r="852">
@@ -7243,7 +7243,7 @@
         <v>850</v>
       </c>
       <c r="B852" t="n">
-        <v>34.59587478637695</v>
+        <v>31.70516967773438</v>
       </c>
     </row>
     <row r="853">
@@ -7251,7 +7251,7 @@
         <v>851</v>
       </c>
       <c r="B853" t="n">
-        <v>32.06080627441406</v>
+        <v>31.72966384887695</v>
       </c>
     </row>
     <row r="854">
@@ -7259,7 +7259,7 @@
         <v>852</v>
       </c>
       <c r="B854" t="n">
-        <v>33.65666961669922</v>
+        <v>31.58153343200684</v>
       </c>
     </row>
     <row r="855">
@@ -7267,7 +7267,7 @@
         <v>853</v>
       </c>
       <c r="B855" t="n">
-        <v>35.30380630493164</v>
+        <v>31.63581085205078</v>
       </c>
     </row>
     <row r="856">
@@ -7275,7 +7275,7 @@
         <v>854</v>
       </c>
       <c r="B856" t="n">
-        <v>34.53574371337891</v>
+        <v>31.70328140258789</v>
       </c>
     </row>
     <row r="857">
@@ -7283,7 +7283,7 @@
         <v>855</v>
       </c>
       <c r="B857" t="n">
-        <v>33.77213668823242</v>
+        <v>32.07789993286133</v>
       </c>
     </row>
     <row r="858">
@@ -7291,7 +7291,7 @@
         <v>856</v>
       </c>
       <c r="B858" t="n">
-        <v>34.09965515136719</v>
+        <v>32.02254486083984</v>
       </c>
     </row>
     <row r="859">
@@ -7299,7 +7299,7 @@
         <v>857</v>
       </c>
       <c r="B859" t="n">
-        <v>33.22416305541992</v>
+        <v>31.66650199890137</v>
       </c>
     </row>
     <row r="860">
@@ -7307,7 +7307,7 @@
         <v>858</v>
       </c>
       <c r="B860" t="n">
-        <v>34.56153106689453</v>
+        <v>31.71703910827637</v>
       </c>
     </row>
     <row r="861">
@@ -7315,7 +7315,7 @@
         <v>859</v>
       </c>
       <c r="B861" t="n">
-        <v>31.7658576965332</v>
+        <v>32.27967834472656</v>
       </c>
     </row>
     <row r="862">
@@ -7323,7 +7323,7 @@
         <v>860</v>
       </c>
       <c r="B862" t="n">
-        <v>33.96255111694336</v>
+        <v>31.75645446777344</v>
       </c>
     </row>
     <row r="863">
@@ -7331,7 +7331,7 @@
         <v>861</v>
       </c>
       <c r="B863" t="n">
-        <v>31.92883682250977</v>
+        <v>31.73344421386719</v>
       </c>
     </row>
     <row r="864">
@@ -7339,7 +7339,7 @@
         <v>862</v>
       </c>
       <c r="B864" t="n">
-        <v>34.97116470336914</v>
+        <v>31.82952117919922</v>
       </c>
     </row>
     <row r="865">
@@ -7347,7 +7347,7 @@
         <v>863</v>
       </c>
       <c r="B865" t="n">
-        <v>35.28648376464844</v>
+        <v>31.86450576782227</v>
       </c>
     </row>
     <row r="866">
@@ -7355,7 +7355,7 @@
         <v>864</v>
       </c>
       <c r="B866" t="n">
-        <v>33.28453063964844</v>
+        <v>31.78286361694336</v>
       </c>
     </row>
     <row r="867">
@@ -7363,7 +7363,7 @@
         <v>865</v>
       </c>
       <c r="B867" t="n">
-        <v>30.80594062805176</v>
+        <v>31.58719253540039</v>
       </c>
     </row>
     <row r="868">
@@ -7371,7 +7371,7 @@
         <v>866</v>
       </c>
       <c r="B868" t="n">
-        <v>33.5586051940918</v>
+        <v>31.71652603149414</v>
       </c>
     </row>
     <row r="869">
@@ -7379,7 +7379,7 @@
         <v>867</v>
       </c>
       <c r="B869" t="n">
-        <v>33.90505599975586</v>
+        <v>31.70026016235352</v>
       </c>
     </row>
     <row r="870">
@@ -7387,7 +7387,7 @@
         <v>868</v>
       </c>
       <c r="B870" t="n">
-        <v>33.03227233886719</v>
+        <v>31.87438583374023</v>
       </c>
     </row>
     <row r="871">
@@ -7395,7 +7395,7 @@
         <v>869</v>
       </c>
       <c r="B871" t="n">
-        <v>33.07653045654297</v>
+        <v>31.78426551818848</v>
       </c>
     </row>
     <row r="872">
@@ -7403,7 +7403,7 @@
         <v>870</v>
       </c>
       <c r="B872" t="n">
-        <v>32.89517974853516</v>
+        <v>31.91544723510742</v>
       </c>
     </row>
     <row r="873">
@@ -7411,7 +7411,7 @@
         <v>871</v>
       </c>
       <c r="B873" t="n">
-        <v>32.86722564697266</v>
+        <v>31.81704711914062</v>
       </c>
     </row>
     <row r="874">
@@ -7419,7 +7419,7 @@
         <v>872</v>
       </c>
       <c r="B874" t="n">
-        <v>33.17170715332031</v>
+        <v>32.78646850585938</v>
       </c>
     </row>
     <row r="875">
@@ -7427,7 +7427,7 @@
         <v>873</v>
       </c>
       <c r="B875" t="n">
-        <v>35.37998962402344</v>
+        <v>31.60845947265625</v>
       </c>
     </row>
     <row r="876">
@@ -7435,7 +7435,7 @@
         <v>874</v>
       </c>
       <c r="B876" t="n">
-        <v>33.00209045410156</v>
+        <v>31.71385765075684</v>
       </c>
     </row>
     <row r="877">
@@ -7443,7 +7443,7 @@
         <v>875</v>
       </c>
       <c r="B877" t="n">
-        <v>33.81171798706055</v>
+        <v>31.72054290771484</v>
       </c>
     </row>
     <row r="878">
@@ -7451,7 +7451,7 @@
         <v>876</v>
       </c>
       <c r="B878" t="n">
-        <v>35.18563079833984</v>
+        <v>32.56371688842773</v>
       </c>
     </row>
     <row r="879">
@@ -7459,7 +7459,7 @@
         <v>877</v>
       </c>
       <c r="B879" t="n">
-        <v>30.79413223266602</v>
+        <v>31.57587814331055</v>
       </c>
     </row>
     <row r="880">
@@ -7467,7 +7467,7 @@
         <v>878</v>
       </c>
       <c r="B880" t="n">
-        <v>31.90938186645508</v>
+        <v>31.65715789794922</v>
       </c>
     </row>
     <row r="881">
@@ -7475,7 +7475,7 @@
         <v>879</v>
       </c>
       <c r="B881" t="n">
-        <v>32.12165069580078</v>
+        <v>31.69416427612305</v>
       </c>
     </row>
     <row r="882">
@@ -7483,7 +7483,7 @@
         <v>880</v>
       </c>
       <c r="B882" t="n">
-        <v>32.88529968261719</v>
+        <v>31.66947937011719</v>
       </c>
     </row>
     <row r="883">
@@ -7491,7 +7491,7 @@
         <v>881</v>
       </c>
       <c r="B883" t="n">
-        <v>31.72983741760254</v>
+        <v>32.20780944824219</v>
       </c>
     </row>
     <row r="884">
@@ -7499,7 +7499,7 @@
         <v>882</v>
       </c>
       <c r="B884" t="n">
-        <v>32.70881652832031</v>
+        <v>31.58275985717773</v>
       </c>
     </row>
     <row r="885">
@@ -7507,7 +7507,7 @@
         <v>883</v>
       </c>
       <c r="B885" t="n">
-        <v>30.72722434997559</v>
+        <v>31.68852043151855</v>
       </c>
     </row>
     <row r="886">
@@ -7515,7 +7515,7 @@
         <v>884</v>
       </c>
       <c r="B886" t="n">
-        <v>33.28037261962891</v>
+        <v>32.11606979370117</v>
       </c>
     </row>
     <row r="887">
@@ -7523,7 +7523,7 @@
         <v>885</v>
       </c>
       <c r="B887" t="n">
-        <v>34.17264938354492</v>
+        <v>31.84754371643066</v>
       </c>
     </row>
     <row r="888">
@@ -7531,7 +7531,7 @@
         <v>886</v>
       </c>
       <c r="B888" t="n">
-        <v>32.06265258789062</v>
+        <v>31.58534622192383</v>
       </c>
     </row>
     <row r="889">
@@ -7539,7 +7539,7 @@
         <v>887</v>
       </c>
       <c r="B889" t="n">
-        <v>34.72098922729492</v>
+        <v>31.85954666137695</v>
       </c>
     </row>
     <row r="890">
@@ -7547,7 +7547,7 @@
         <v>888</v>
       </c>
       <c r="B890" t="n">
-        <v>32.01779556274414</v>
+        <v>31.86631393432617</v>
       </c>
     </row>
     <row r="891">
@@ -7555,7 +7555,7 @@
         <v>889</v>
       </c>
       <c r="B891" t="n">
-        <v>33.82635879516602</v>
+        <v>31.70005035400391</v>
       </c>
     </row>
     <row r="892">
@@ -7563,7 +7563,7 @@
         <v>890</v>
       </c>
       <c r="B892" t="n">
-        <v>32.19405364990234</v>
+        <v>32.26825714111328</v>
       </c>
     </row>
     <row r="893">
@@ -7571,7 +7571,7 @@
         <v>891</v>
       </c>
       <c r="B893" t="n">
-        <v>31.92412567138672</v>
+        <v>31.70785903930664</v>
       </c>
     </row>
     <row r="894">
@@ -7579,7 +7579,7 @@
         <v>892</v>
       </c>
       <c r="B894" t="n">
-        <v>30.65600776672363</v>
+        <v>31.85160446166992</v>
       </c>
     </row>
     <row r="895">
@@ -7587,7 +7587,7 @@
         <v>893</v>
       </c>
       <c r="B895" t="n">
-        <v>33.48027801513672</v>
+        <v>31.91832542419434</v>
       </c>
     </row>
     <row r="896">
@@ -7595,7 +7595,7 @@
         <v>894</v>
       </c>
       <c r="B896" t="n">
-        <v>33.45188522338867</v>
+        <v>31.63125038146973</v>
       </c>
     </row>
     <row r="897">
@@ -7603,7 +7603,7 @@
         <v>895</v>
       </c>
       <c r="B897" t="n">
-        <v>31.34316825866699</v>
+        <v>32.20798110961914</v>
       </c>
     </row>
     <row r="898">
@@ -7611,7 +7611,7 @@
         <v>896</v>
       </c>
       <c r="B898" t="n">
-        <v>35.86427688598633</v>
+        <v>32.0737419128418</v>
       </c>
     </row>
     <row r="899">
@@ -7619,7 +7619,7 @@
         <v>897</v>
       </c>
       <c r="B899" t="n">
-        <v>34.51222229003906</v>
+        <v>31.9013557434082</v>
       </c>
     </row>
     <row r="900">
@@ -7627,7 +7627,7 @@
         <v>898</v>
       </c>
       <c r="B900" t="n">
-        <v>34.71530151367188</v>
+        <v>32.08824920654297</v>
       </c>
     </row>
     <row r="901">
@@ -7635,7 +7635,7 @@
         <v>899</v>
       </c>
       <c r="B901" t="n">
-        <v>32.88079833984375</v>
+        <v>31.6739444732666</v>
       </c>
     </row>
     <row r="902">
@@ -7643,7 +7643,7 @@
         <v>900</v>
       </c>
       <c r="B902" t="n">
-        <v>33.49505615234375</v>
+        <v>31.70259475708008</v>
       </c>
     </row>
     <row r="903">
@@ -7651,7 +7651,7 @@
         <v>901</v>
       </c>
       <c r="B903" t="n">
-        <v>29.15688323974609</v>
+        <v>31.94769096374512</v>
       </c>
     </row>
     <row r="904">
@@ -7659,7 +7659,7 @@
         <v>902</v>
       </c>
       <c r="B904" t="n">
-        <v>30.93301391601562</v>
+        <v>31.70569229125977</v>
       </c>
     </row>
     <row r="905">
@@ -7667,7 +7667,7 @@
         <v>903</v>
       </c>
       <c r="B905" t="n">
-        <v>33.57114410400391</v>
+        <v>32.00741577148438</v>
       </c>
     </row>
     <row r="906">
@@ -7675,7 +7675,7 @@
         <v>904</v>
       </c>
       <c r="B906" t="n">
-        <v>32.40813064575195</v>
+        <v>31.57796669006348</v>
       </c>
     </row>
     <row r="907">
@@ -7683,7 +7683,7 @@
         <v>905</v>
       </c>
       <c r="B907" t="n">
-        <v>35.43278503417969</v>
+        <v>31.5800666809082</v>
       </c>
     </row>
     <row r="908">
@@ -7691,7 +7691,7 @@
         <v>906</v>
       </c>
       <c r="B908" t="n">
-        <v>34.42337036132812</v>
+        <v>31.737548828125</v>
       </c>
     </row>
     <row r="909">
@@ -7699,7 +7699,7 @@
         <v>907</v>
       </c>
       <c r="B909" t="n">
-        <v>33.00424575805664</v>
+        <v>31.69214630126953</v>
       </c>
     </row>
     <row r="910">
@@ -7707,7 +7707,7 @@
         <v>908</v>
       </c>
       <c r="B910" t="n">
-        <v>32.39178085327148</v>
+        <v>31.76576614379883</v>
       </c>
     </row>
     <row r="911">
@@ -7715,7 +7715,7 @@
         <v>909</v>
       </c>
       <c r="B911" t="n">
-        <v>32.47534942626953</v>
+        <v>31.76853561401367</v>
       </c>
     </row>
     <row r="912">
@@ -7723,7 +7723,7 @@
         <v>910</v>
       </c>
       <c r="B912" t="n">
-        <v>32.79920959472656</v>
+        <v>31.78438949584961</v>
       </c>
     </row>
     <row r="913">
@@ -7731,7 +7731,7 @@
         <v>911</v>
       </c>
       <c r="B913" t="n">
-        <v>35.30133819580078</v>
+        <v>31.64216613769531</v>
       </c>
     </row>
     <row r="914">
@@ -7739,7 +7739,7 @@
         <v>912</v>
       </c>
       <c r="B914" t="n">
-        <v>31.74538803100586</v>
+        <v>32.2123908996582</v>
       </c>
     </row>
     <row r="915">
@@ -7747,7 +7747,7 @@
         <v>913</v>
       </c>
       <c r="B915" t="n">
-        <v>34.56057357788086</v>
+        <v>31.66494941711426</v>
       </c>
     </row>
     <row r="916">
@@ -7755,7 +7755,7 @@
         <v>914</v>
       </c>
       <c r="B916" t="n">
-        <v>33.68291473388672</v>
+        <v>31.58849716186523</v>
       </c>
     </row>
     <row r="917">
@@ -7763,7 +7763,7 @@
         <v>915</v>
       </c>
       <c r="B917" t="n">
-        <v>33.27391052246094</v>
+        <v>31.72192573547363</v>
       </c>
     </row>
     <row r="918">
@@ -7771,7 +7771,7 @@
         <v>916</v>
       </c>
       <c r="B918" t="n">
-        <v>32.58185195922852</v>
+        <v>31.76418113708496</v>
       </c>
     </row>
     <row r="919">
@@ -7779,7 +7779,7 @@
         <v>917</v>
       </c>
       <c r="B919" t="n">
-        <v>31.53129959106445</v>
+        <v>31.63515472412109</v>
       </c>
     </row>
     <row r="920">
@@ -7787,7 +7787,7 @@
         <v>918</v>
       </c>
       <c r="B920" t="n">
-        <v>32.99747848510742</v>
+        <v>32.08481597900391</v>
       </c>
     </row>
     <row r="921">
@@ -7795,7 +7795,7 @@
         <v>919</v>
       </c>
       <c r="B921" t="n">
-        <v>29.56234741210938</v>
+        <v>31.74245834350586</v>
       </c>
     </row>
     <row r="922">
@@ -7803,7 +7803,7 @@
         <v>920</v>
       </c>
       <c r="B922" t="n">
-        <v>32.42508697509766</v>
+        <v>32.04934310913086</v>
       </c>
     </row>
     <row r="923">
@@ -7811,7 +7811,7 @@
         <v>921</v>
       </c>
       <c r="B923" t="n">
-        <v>33.36806869506836</v>
+        <v>31.6585693359375</v>
       </c>
     </row>
     <row r="924">
@@ -7819,7 +7819,7 @@
         <v>922</v>
       </c>
       <c r="B924" t="n">
-        <v>31.23539352416992</v>
+        <v>32.43490219116211</v>
       </c>
     </row>
     <row r="925">
@@ -7827,7 +7827,7 @@
         <v>923</v>
       </c>
       <c r="B925" t="n">
-        <v>32.70368194580078</v>
+        <v>31.83109664916992</v>
       </c>
     </row>
     <row r="926">
@@ -7835,7 +7835,7 @@
         <v>924</v>
       </c>
       <c r="B926" t="n">
-        <v>31.74258041381836</v>
+        <v>31.67472839355469</v>
       </c>
     </row>
     <row r="927">
@@ -7843,7 +7843,7 @@
         <v>925</v>
       </c>
       <c r="B927" t="n">
-        <v>30.02661895751953</v>
+        <v>31.66514205932617</v>
       </c>
     </row>
     <row r="928">
@@ -7851,7 +7851,7 @@
         <v>926</v>
       </c>
       <c r="B928" t="n">
-        <v>33.64151763916016</v>
+        <v>31.59034729003906</v>
       </c>
     </row>
     <row r="929">
@@ -7859,7 +7859,7 @@
         <v>927</v>
       </c>
       <c r="B929" t="n">
-        <v>32.5921630859375</v>
+        <v>31.72417449951172</v>
       </c>
     </row>
     <row r="930">
@@ -7867,7 +7867,7 @@
         <v>928</v>
       </c>
       <c r="B930" t="n">
-        <v>34.49557113647461</v>
+        <v>32.77338790893555</v>
       </c>
     </row>
     <row r="931">
@@ -7875,7 +7875,7 @@
         <v>929</v>
       </c>
       <c r="B931" t="n">
-        <v>33.34162521362305</v>
+        <v>31.80240631103516</v>
       </c>
     </row>
     <row r="932">
@@ -7883,7 +7883,7 @@
         <v>930</v>
       </c>
       <c r="B932" t="n">
-        <v>31.36502456665039</v>
+        <v>31.90743255615234</v>
       </c>
     </row>
     <row r="933">
@@ -7891,7 +7891,7 @@
         <v>931</v>
       </c>
       <c r="B933" t="n">
-        <v>32.76438140869141</v>
+        <v>31.59265518188477</v>
       </c>
     </row>
     <row r="934">
@@ -7899,7 +7899,7 @@
         <v>932</v>
       </c>
       <c r="B934" t="n">
-        <v>33.46566772460938</v>
+        <v>31.94316101074219</v>
       </c>
     </row>
     <row r="935">
@@ -7907,7 +7907,7 @@
         <v>933</v>
       </c>
       <c r="B935" t="n">
-        <v>34.31864929199219</v>
+        <v>31.6119499206543</v>
       </c>
     </row>
     <row r="936">
@@ -7915,7 +7915,7 @@
         <v>934</v>
       </c>
       <c r="B936" t="n">
-        <v>31.87607955932617</v>
+        <v>31.5967903137207</v>
       </c>
     </row>
     <row r="937">
@@ -7923,7 +7923,7 @@
         <v>935</v>
       </c>
       <c r="B937" t="n">
-        <v>33.10222625732422</v>
+        <v>31.66125869750977</v>
       </c>
     </row>
     <row r="938">
@@ -7931,7 +7931,7 @@
         <v>936</v>
       </c>
       <c r="B938" t="n">
-        <v>30.90641403198242</v>
+        <v>31.91456031799316</v>
       </c>
     </row>
     <row r="939">
@@ -7939,7 +7939,7 @@
         <v>937</v>
       </c>
       <c r="B939" t="n">
-        <v>31.58555221557617</v>
+        <v>31.61608123779297</v>
       </c>
     </row>
     <row r="940">
@@ -7947,7 +7947,7 @@
         <v>938</v>
       </c>
       <c r="B940" t="n">
-        <v>30.11234092712402</v>
+        <v>31.60771751403809</v>
       </c>
     </row>
     <row r="941">
@@ -7955,7 +7955,7 @@
         <v>939</v>
       </c>
       <c r="B941" t="n">
-        <v>33.29269409179688</v>
+        <v>31.97233200073242</v>
       </c>
     </row>
     <row r="942">
@@ -7963,7 +7963,7 @@
         <v>940</v>
       </c>
       <c r="B942" t="n">
-        <v>33.94272994995117</v>
+        <v>31.77451705932617</v>
       </c>
     </row>
     <row r="943">
@@ -7971,7 +7971,7 @@
         <v>941</v>
       </c>
       <c r="B943" t="n">
-        <v>33.73189163208008</v>
+        <v>31.74445915222168</v>
       </c>
     </row>
     <row r="944">
@@ -7979,7 +7979,7 @@
         <v>942</v>
       </c>
       <c r="B944" t="n">
-        <v>30.34576225280762</v>
+        <v>31.61214447021484</v>
       </c>
     </row>
     <row r="945">
@@ -7987,7 +7987,7 @@
         <v>943</v>
       </c>
       <c r="B945" t="n">
-        <v>33.08395767211914</v>
+        <v>31.64151382446289</v>
       </c>
     </row>
     <row r="946">
@@ -7995,7 +7995,7 @@
         <v>944</v>
       </c>
       <c r="B946" t="n">
-        <v>34.40851211547852</v>
+        <v>31.86019325256348</v>
       </c>
     </row>
     <row r="947">
@@ -8003,7 +8003,7 @@
         <v>945</v>
       </c>
       <c r="B947" t="n">
-        <v>31.94172668457031</v>
+        <v>31.7678165435791</v>
       </c>
     </row>
     <row r="948">
@@ -8011,7 +8011,7 @@
         <v>946</v>
       </c>
       <c r="B948" t="n">
-        <v>31.30167007446289</v>
+        <v>31.81305694580078</v>
       </c>
     </row>
     <row r="949">
@@ -8019,7 +8019,7 @@
         <v>947</v>
       </c>
       <c r="B949" t="n">
-        <v>31.89057922363281</v>
+        <v>31.87003135681152</v>
       </c>
     </row>
     <row r="950">
@@ -8027,7 +8027,7 @@
         <v>948</v>
       </c>
       <c r="B950" t="n">
-        <v>31.22636604309082</v>
+        <v>31.67683982849121</v>
       </c>
     </row>
     <row r="951">
@@ -8035,7 +8035,7 @@
         <v>949</v>
       </c>
       <c r="B951" t="n">
-        <v>31.91730499267578</v>
+        <v>31.87921142578125</v>
       </c>
     </row>
     <row r="952">
@@ -8043,7 +8043,7 @@
         <v>950</v>
       </c>
       <c r="B952" t="n">
-        <v>33.60202407836914</v>
+        <v>31.60113143920898</v>
       </c>
     </row>
     <row r="953">
@@ -8051,7 +8051,7 @@
         <v>951</v>
       </c>
       <c r="B953" t="n">
-        <v>34.06824493408203</v>
+        <v>31.65870666503906</v>
       </c>
     </row>
     <row r="954">
@@ -8059,7 +8059,7 @@
         <v>952</v>
       </c>
       <c r="B954" t="n">
-        <v>33.14905166625977</v>
+        <v>31.65922546386719</v>
       </c>
     </row>
     <row r="955">
@@ -8067,7 +8067,7 @@
         <v>953</v>
       </c>
       <c r="B955" t="n">
-        <v>31.26891708374023</v>
+        <v>31.77394676208496</v>
       </c>
     </row>
     <row r="956">
@@ -8075,7 +8075,7 @@
         <v>954</v>
       </c>
       <c r="B956" t="n">
-        <v>31.09225845336914</v>
+        <v>31.63822937011719</v>
       </c>
     </row>
     <row r="957">
@@ -8083,7 +8083,7 @@
         <v>955</v>
       </c>
       <c r="B957" t="n">
-        <v>34.62343978881836</v>
+        <v>31.95957565307617</v>
       </c>
     </row>
     <row r="958">
@@ -8091,7 +8091,7 @@
         <v>956</v>
       </c>
       <c r="B958" t="n">
-        <v>30.6052417755127</v>
+        <v>31.76261901855469</v>
       </c>
     </row>
     <row r="959">
@@ -8099,7 +8099,7 @@
         <v>957</v>
       </c>
       <c r="B959" t="n">
-        <v>33.18684387207031</v>
+        <v>31.67001342773438</v>
       </c>
     </row>
     <row r="960">
@@ -8107,7 +8107,7 @@
         <v>958</v>
       </c>
       <c r="B960" t="n">
-        <v>31.64886093139648</v>
+        <v>31.76187705993652</v>
       </c>
     </row>
     <row r="961">
@@ -8115,7 +8115,7 @@
         <v>959</v>
       </c>
       <c r="B961" t="n">
-        <v>30.3562068939209</v>
+        <v>31.77748489379883</v>
       </c>
     </row>
     <row r="962">
@@ -8123,7 +8123,7 @@
         <v>960</v>
       </c>
       <c r="B962" t="n">
-        <v>31.2234058380127</v>
+        <v>32.51527786254883</v>
       </c>
     </row>
     <row r="963">
@@ -8131,7 +8131,7 @@
         <v>961</v>
       </c>
       <c r="B963" t="n">
-        <v>32.02828979492188</v>
+        <v>31.76882934570312</v>
       </c>
     </row>
     <row r="964">
@@ -8139,7 +8139,7 @@
         <v>962</v>
       </c>
       <c r="B964" t="n">
-        <v>31.38493347167969</v>
+        <v>31.64385223388672</v>
       </c>
     </row>
     <row r="965">
@@ -8147,7 +8147,7 @@
         <v>963</v>
       </c>
       <c r="B965" t="n">
-        <v>30.53031730651855</v>
+        <v>31.86495590209961</v>
       </c>
     </row>
     <row r="966">
@@ -8155,7 +8155,7 @@
         <v>964</v>
       </c>
       <c r="B966" t="n">
-        <v>32.16500091552734</v>
+        <v>31.65848922729492</v>
       </c>
     </row>
     <row r="967">
@@ -8163,7 +8163,7 @@
         <v>965</v>
       </c>
       <c r="B967" t="n">
-        <v>30.06114387512207</v>
+        <v>31.58132553100586</v>
       </c>
     </row>
     <row r="968">
@@ -8171,7 +8171,7 @@
         <v>966</v>
       </c>
       <c r="B968" t="n">
-        <v>31.63174438476562</v>
+        <v>31.58742141723633</v>
       </c>
     </row>
     <row r="969">
@@ -8179,7 +8179,7 @@
         <v>967</v>
       </c>
       <c r="B969" t="n">
-        <v>31.88116073608398</v>
+        <v>31.58238220214844</v>
       </c>
     </row>
     <row r="970">
@@ -8187,7 +8187,7 @@
         <v>968</v>
       </c>
       <c r="B970" t="n">
-        <v>32.41252136230469</v>
+        <v>31.67065048217773</v>
       </c>
     </row>
     <row r="971">
@@ -8195,7 +8195,7 @@
         <v>969</v>
       </c>
       <c r="B971" t="n">
-        <v>32.13490676879883</v>
+        <v>31.61989212036133</v>
       </c>
     </row>
     <row r="972">
@@ -8203,7 +8203,7 @@
         <v>970</v>
       </c>
       <c r="B972" t="n">
-        <v>31.93266677856445</v>
+        <v>31.88654708862305</v>
       </c>
     </row>
     <row r="973">
@@ -8211,7 +8211,7 @@
         <v>971</v>
       </c>
       <c r="B973" t="n">
-        <v>31.22211837768555</v>
+        <v>31.72251510620117</v>
       </c>
     </row>
     <row r="974">
@@ -8219,7 +8219,7 @@
         <v>972</v>
       </c>
       <c r="B974" t="n">
-        <v>33.93455505371094</v>
+        <v>31.71714401245117</v>
       </c>
     </row>
     <row r="975">
@@ -8227,7 +8227,7 @@
         <v>973</v>
       </c>
       <c r="B975" t="n">
-        <v>34.36016464233398</v>
+        <v>31.7168083190918</v>
       </c>
     </row>
     <row r="976">
@@ -8235,7 +8235,7 @@
         <v>974</v>
       </c>
       <c r="B976" t="n">
-        <v>30.14799499511719</v>
+        <v>31.78439712524414</v>
       </c>
     </row>
     <row r="977">
@@ -8243,7 +8243,7 @@
         <v>975</v>
       </c>
       <c r="B977" t="n">
-        <v>30.8405704498291</v>
+        <v>31.70559310913086</v>
       </c>
     </row>
     <row r="978">
@@ -8251,7 +8251,7 @@
         <v>976</v>
       </c>
       <c r="B978" t="n">
-        <v>31.29096984863281</v>
+        <v>31.69324493408203</v>
       </c>
     </row>
     <row r="979">
@@ -8259,7 +8259,7 @@
         <v>977</v>
       </c>
       <c r="B979" t="n">
-        <v>31.54734230041504</v>
+        <v>31.8608512878418</v>
       </c>
     </row>
     <row r="980">
@@ -8267,7 +8267,7 @@
         <v>978</v>
       </c>
       <c r="B980" t="n">
-        <v>32.72141265869141</v>
+        <v>31.7391185760498</v>
       </c>
     </row>
     <row r="981">
@@ -8275,7 +8275,7 @@
         <v>979</v>
       </c>
       <c r="B981" t="n">
-        <v>31.12409973144531</v>
+        <v>31.59102630615234</v>
       </c>
     </row>
     <row r="982">
@@ -8283,7 +8283,7 @@
         <v>980</v>
       </c>
       <c r="B982" t="n">
-        <v>29.46945953369141</v>
+        <v>31.65142631530762</v>
       </c>
     </row>
     <row r="983">
@@ -8291,7 +8291,7 @@
         <v>981</v>
       </c>
       <c r="B983" t="n">
-        <v>30.41833114624023</v>
+        <v>32.12073516845703</v>
       </c>
     </row>
     <row r="984">
@@ -8299,7 +8299,7 @@
         <v>982</v>
       </c>
       <c r="B984" t="n">
-        <v>32.96479034423828</v>
+        <v>31.93668365478516</v>
       </c>
     </row>
     <row r="985">
@@ -8307,7 +8307,7 @@
         <v>983</v>
       </c>
       <c r="B985" t="n">
-        <v>34.4127082824707</v>
+        <v>31.6259880065918</v>
       </c>
     </row>
     <row r="986">
@@ -8315,7 +8315,7 @@
         <v>984</v>
       </c>
       <c r="B986" t="n">
-        <v>32.67266082763672</v>
+        <v>31.85437393188477</v>
       </c>
     </row>
     <row r="987">
@@ -8323,7 +8323,7 @@
         <v>985</v>
       </c>
       <c r="B987" t="n">
-        <v>32.03470611572266</v>
+        <v>31.58333206176758</v>
       </c>
     </row>
     <row r="988">
@@ -8331,7 +8331,7 @@
         <v>986</v>
       </c>
       <c r="B988" t="n">
-        <v>30.19834136962891</v>
+        <v>31.59094619750977</v>
       </c>
     </row>
     <row r="989">
@@ -8339,7 +8339,7 @@
         <v>987</v>
       </c>
       <c r="B989" t="n">
-        <v>31.11389541625977</v>
+        <v>31.67747116088867</v>
       </c>
     </row>
     <row r="990">
@@ -8347,7 +8347,7 @@
         <v>988</v>
       </c>
       <c r="B990" t="n">
-        <v>32.93227005004883</v>
+        <v>31.84669494628906</v>
       </c>
     </row>
     <row r="991">
@@ -8355,7 +8355,7 @@
         <v>989</v>
       </c>
       <c r="B991" t="n">
-        <v>32.98674774169922</v>
+        <v>31.76164245605469</v>
       </c>
     </row>
     <row r="992">
@@ -8363,7 +8363,7 @@
         <v>990</v>
       </c>
       <c r="B992" t="n">
-        <v>31.16216659545898</v>
+        <v>31.89536285400391</v>
       </c>
     </row>
     <row r="993">
@@ -8371,7 +8371,7 @@
         <v>991</v>
       </c>
       <c r="B993" t="n">
-        <v>34.30136489868164</v>
+        <v>31.58043479919434</v>
       </c>
     </row>
     <row r="994">
@@ -8379,7 +8379,7 @@
         <v>992</v>
       </c>
       <c r="B994" t="n">
-        <v>31.61009216308594</v>
+        <v>32.07073974609375</v>
       </c>
     </row>
     <row r="995">
@@ -8387,7 +8387,7 @@
         <v>993</v>
       </c>
       <c r="B995" t="n">
-        <v>31.74889373779297</v>
+        <v>31.64465141296387</v>
       </c>
     </row>
     <row r="996">
@@ -8395,7 +8395,7 @@
         <v>994</v>
       </c>
       <c r="B996" t="n">
-        <v>33.52767562866211</v>
+        <v>32.53578186035156</v>
       </c>
     </row>
     <row r="997">
@@ -8403,7 +8403,7 @@
         <v>995</v>
       </c>
       <c r="B997" t="n">
-        <v>31.37150955200195</v>
+        <v>31.66372871398926</v>
       </c>
     </row>
     <row r="998">
@@ -8411,7 +8411,7 @@
         <v>996</v>
       </c>
       <c r="B998" t="n">
-        <v>30.87768936157227</v>
+        <v>31.75208282470703</v>
       </c>
     </row>
     <row r="999">
@@ -8419,7 +8419,7 @@
         <v>997</v>
       </c>
       <c r="B999" t="n">
-        <v>32.63709259033203</v>
+        <v>32.14292907714844</v>
       </c>
     </row>
     <row r="1000">
@@ -8427,7 +8427,7 @@
         <v>998</v>
       </c>
       <c r="B1000" t="n">
-        <v>31.93499183654785</v>
+        <v>31.59950256347656</v>
       </c>
     </row>
     <row r="1001">
@@ -8435,7 +8435,7 @@
         <v>999</v>
       </c>
       <c r="B1001" t="n">
-        <v>31.95932388305664</v>
+        <v>31.70644760131836</v>
       </c>
     </row>
   </sheetData>
